--- a/data/Data Dictionary.xlsx
+++ b/data/Data Dictionary.xlsx
@@ -12,9 +12,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
-  <si>
-    <t>Table 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Source</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>VariableName</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Value description</t>
+    </r>
   </si>
   <si>
     <r>
@@ -383,7 +440,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>POE</t>
+      <t>POE1</t>
     </r>
   </si>
   <si>
@@ -403,7 +460,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>CE</t>
+      <t>C1</t>
     </r>
   </si>
   <si>
@@ -423,16 +480,6 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>RE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
       <t>Radiation emergencies</t>
     </r>
   </si>
@@ -1303,7 +1350,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>POE1</t>
+      <t>POE11</t>
     </r>
   </si>
   <si>
@@ -1323,7 +1370,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>POE2</t>
+      <t>POE12</t>
     </r>
   </si>
   <si>
@@ -1343,7 +1390,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>CE1</t>
+      <t>C11</t>
     </r>
   </si>
   <si>
@@ -1363,7 +1410,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>CE2</t>
+      <t>C12</t>
     </r>
   </si>
   <si>
@@ -1383,16 +1430,6 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>RE1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
       <t>Mechanisms established and functioning for detecting and responding to radiological and nuclear emergencies</t>
     </r>
   </si>
@@ -1403,16 +1440,6 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>RE2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
       <t>Enabling environment in place for management of radiation emergencies</t>
     </r>
   </si>
@@ -1903,16 +1930,6 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>C1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
       <t>Legislation and Financing</t>
     </r>
   </si>
@@ -1943,16 +1960,6 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>C11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
       <t>Legislation, laws, regulations, policy, administrative requirements or other government instruments to implement the IHR</t>
     </r>
   </si>
@@ -2053,7 +2060,15 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Domestic legislation, laws, regulations, policy and administrative requirements are available in all relevant
+      <t>Domestic legislation, laws, regulations, policy and administrative requirements are available in all relevant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2072,7 +2087,15 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Benchmark
+      <t>Benchmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2101,7 +2124,15 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">To assess, adjust and align domestic legislation, laws, regulations, policy and administrative requirements in all
+      <t>To assess, adjust and align domestic legislation, laws, regulations, policy and administrative requirements in all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2270,7 +2301,15 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">1
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -2621,7 +2660,17 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Time from start to detection</t>
+      <t>Preparedness and prevention</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Time from outbreak start to detection</t>
     </r>
   </si>
   <si>
@@ -2641,37 +2690,37 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Time from notification to verification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Time from verification to outbreak end</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Preparedness</t>
+      <t>Time from detection to verification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Time from detection to outbreak intervention</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Time from outbreak intervention to outbreak end</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Time from outbreak start to outbreak end</t>
     </r>
   </si>
 </sst>
@@ -2704,7 +2753,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2713,18 +2762,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2734,179 +2777,61 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="9"/>
       </top>
-      <bottom style="thin">
-        <color indexed="12"/>
+      <bottom>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="9"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2916,63 +2841,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2991,11 +2886,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff7f7f7f"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -3005,16 +2897,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4356</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1229906</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>367594</xdr:rowOff>
+      <xdr:rowOff>348541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>283756</xdr:colOff>
+      <xdr:colOff>264706</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>659694</xdr:rowOff>
+      <xdr:rowOff>640641</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3023,7 +2915,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11205756" y="39923649"/>
+          <a:off x="11186706" y="39904596"/>
           <a:ext cx="1524001" cy="292101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4167,7 +4059,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K186"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4181,3185 +4073,3232 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="44.5" customHeight="1">
-      <c r="A2" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="8">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="8">
+      <c r="A2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="B2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" ht="44.5" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" t="s" s="8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" ht="32.5" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" ht="20.5" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" ht="20.5" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" ht="32.5" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" ht="20.5" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" ht="32.5" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" ht="20.5" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" ht="20.5" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" ht="32.5" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" ht="32.5" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" ht="44.5" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" ht="56.5" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" ht="56.5" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" ht="32.5" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" ht="20.5" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" ht="20.5" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" ht="32.5" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" ht="140.5" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" ht="32.5" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" t="s" s="8">
+      <c r="C21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="F4" t="s" s="8">
+      <c r="E21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" ht="152.5" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" ht="116.5" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" ht="44.5" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" ht="68.5" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" ht="68.5" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" ht="44.5" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" ht="80.5" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" ht="44.5" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" ht="92.5" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" ht="140.5" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" ht="116.5" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" ht="56.5" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" ht="56.5" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" ht="44.5" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" ht="56.5" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" ht="44.5" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" ht="56.5" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" ht="32.5" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" ht="56.5" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" ht="68.5" customHeight="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" ht="44.5" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" ht="44.5" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" ht="56.5" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" ht="56.5" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" ht="68.5" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" ht="68.5" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" ht="32.5" customHeight="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" ht="92.5" customHeight="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" ht="68.5" customHeight="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" ht="56.5" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" ht="44.5" customHeight="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" ht="44.5" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" ht="80.5" customHeight="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" ht="128.5" customHeight="1">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" ht="80.5" customHeight="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" ht="80.5" customHeight="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" ht="68.5" customHeight="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" ht="56.5" customHeight="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" ht="32.5" customHeight="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" ht="56.5" customHeight="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" ht="44.5" customHeight="1">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" ht="104.5" customHeight="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" ht="44.5" customHeight="1">
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" ht="92.5" customHeight="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" ht="68.5" customHeight="1">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" ht="104.5" customHeight="1">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" ht="80.5" customHeight="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" ht="44.5" customHeight="1">
+      <c r="A69" t="s" s="4">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" ht="20.5" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" t="s" s="8">
+      <c r="F69" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="F5" t="s" s="8">
+      <c r="G69" s="5"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" ht="44.5" customHeight="1">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" ht="20.5" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" t="s" s="8">
+      <c r="F70" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="F6" t="s" s="8">
+      <c r="G70" s="6"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" ht="32.5" customHeight="1">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" ht="32.5" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" t="s" s="8">
+      <c r="F71" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="F7" t="s" s="8">
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" ht="20.5" customHeight="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" ht="20.5" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" t="s" s="8">
+      <c r="F72" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="F8" t="s" s="8">
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" ht="20.5" customHeight="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" ht="32.5" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" t="s" s="8">
+      <c r="F73" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F9" t="s" s="8">
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" ht="32.5" customHeight="1">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" ht="20.5" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" t="s" s="8">
+      <c r="F74" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="F10" t="s" s="8">
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" ht="20.5" customHeight="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" ht="20.5" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" t="s" s="8">
+      <c r="F75" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="F11" t="s" s="8">
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" ht="32.5" customHeight="1">
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" ht="32.5" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" t="s" s="8">
+      <c r="F76" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="F12" t="s" s="8">
+      <c r="G76" s="6"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" ht="20.5" customHeight="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" ht="32.5" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" t="s" s="8">
+      <c r="F77" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="F13" t="s" s="8">
+      <c r="G77" s="6"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" ht="20.5" customHeight="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" ht="44.5" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" t="s" s="8">
+      <c r="F78" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="F14" t="s" s="8">
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" ht="20.5" customHeight="1">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" ht="56.5" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s" s="8">
+      <c r="F79" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" ht="32.5" customHeight="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" ht="56.5" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s" s="8">
+      <c r="F80" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" ht="44.5" customHeight="1">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" ht="32.5" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" t="s" s="8">
+      <c r="F81" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="F17" t="s" s="8">
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" ht="56.5" customHeight="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" ht="20.5" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" t="s" s="8">
+      <c r="F82" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="F18" t="s" s="8">
+      <c r="G82" s="6"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" ht="56.5" customHeight="1">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" ht="20.5" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s" s="8">
+      <c r="F83" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" ht="32.5" customHeight="1">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" ht="32.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" t="s" s="8">
+      <c r="F84" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="F20" t="s" s="8">
+      <c r="G84" s="6"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" ht="20.5" customHeight="1">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" ht="140.5" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="F85" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="B21" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s" s="8">
+      <c r="G85" s="6"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" ht="20.5" customHeight="1">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D21" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s" s="8">
+      <c r="F86" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="F21" t="s" s="8">
+      <c r="G86" s="6"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" ht="32.5" customHeight="1">
+      <c r="A87" s="8"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F87" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" ht="152.5" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="F22" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" ht="116.5" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" t="s" s="8">
+      <c r="G87" s="8"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" ht="152.5" customHeight="1">
+      <c r="A88" t="s" s="4">
+        <v>149</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F23" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" ht="44.5" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" t="s" s="8">
+      <c r="F88" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" ht="56.5" customHeight="1">
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F24" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" ht="68.5" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" t="s" s="8">
+      <c r="F89" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" ht="92.5" customHeight="1">
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" ht="116.5" customHeight="1">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="F25" t="s" s="8">
+      <c r="F91" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" ht="68.5" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" t="s" s="8">
+      <c r="G91" s="6"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" ht="56.5" customHeight="1">
+      <c r="A92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="F26" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" ht="44.5" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" t="s" s="8">
+      <c r="F92" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" ht="32.5" customHeight="1">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="F27" t="s" s="8">
-        <v>58</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" ht="80.5" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" t="s" s="8">
+      <c r="F93" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" ht="20.5" customHeight="1">
+      <c r="A94" s="6"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="F28" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" ht="44.5" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" t="s" s="8">
+      <c r="F94" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="G94" s="6"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" ht="80.5" customHeight="1">
+      <c r="A95" s="6"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="F29" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" ht="92.5" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" t="s" s="8">
+      <c r="F95" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" ht="140.5" customHeight="1">
+      <c r="A96" s="6"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="F30" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" ht="140.5" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" t="s" s="8">
+      <c r="F96" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" ht="92.5" customHeight="1">
+      <c r="A97" s="6"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="F31" t="s" s="8">
-        <v>66</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" ht="116.5" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="F32" t="s" s="8">
+      <c r="F97" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" ht="56.5" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" t="s" s="8">
+      <c r="G97" s="6"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" ht="92.5" customHeight="1">
+      <c r="A98" s="6"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="F33" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" ht="56.5" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" t="s" s="8">
+      <c r="F98" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" ht="92.5" customHeight="1">
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" ht="80.5" customHeight="1">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="F34" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" ht="44.5" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" t="s" s="8">
+      <c r="F100" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" ht="68.5" customHeight="1">
+      <c r="A101" s="6"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="F35" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" ht="56.5" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" t="s" s="8">
+      <c r="F101" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" ht="56.5" customHeight="1">
+      <c r="A102" s="6"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F36" t="s" s="8">
+      <c r="F102" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" ht="44.5" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" t="s" s="8">
+      <c r="G102" s="6"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" ht="44.5" customHeight="1">
+      <c r="A103" s="6"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="F37" t="s" s="8">
+      <c r="F103" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" ht="56.5" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" t="s" s="8">
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" ht="56.5" customHeight="1">
+      <c r="A104" s="6"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="F38" t="s" s="8">
+      <c r="F104" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" ht="32.5" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" t="s" s="8">
+      <c r="G104" s="6"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" ht="44.5" customHeight="1">
+      <c r="A105" s="6"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F39" t="s" s="8">
+      <c r="F105" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" ht="56.5" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" t="s" s="8">
+      <c r="G105" s="6"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" ht="44.5" customHeight="1">
+      <c r="A106" s="6"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F40" t="s" s="8">
-        <v>84</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" ht="68.5" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" t="s" s="8">
+      <c r="F106" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" ht="32.5" customHeight="1">
+      <c r="A107" s="6"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F41" t="s" s="8">
+      <c r="F107" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" ht="44.5" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" t="s" s="8">
+      <c r="G107" s="6"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" ht="32.5" customHeight="1">
+      <c r="A108" s="6"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F42" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" ht="44.5" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" t="s" s="8">
+      <c r="F108" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" ht="32.5" customHeight="1">
+      <c r="A109" s="6"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F43" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" ht="56.5" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" t="s" s="8">
+      <c r="F109" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" ht="32.5" customHeight="1">
+      <c r="A110" s="6"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F44" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" ht="56.5" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" t="s" s="8">
-        <v>93</v>
-      </c>
-      <c r="F45" t="s" s="8">
-        <v>94</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" ht="68.5" customHeight="1">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" t="s" s="8">
+      <c r="F110" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" ht="56.5" customHeight="1">
+      <c r="A111" s="6"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F46" t="s" s="8">
+      <c r="F111" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" ht="68.5" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" t="s" s="8">
+      <c r="G111" s="6"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" ht="56.5" customHeight="1">
+      <c r="A112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="F47" t="s" s="8">
+      <c r="F112" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" ht="32.5" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" t="s" s="8">
+      <c r="G112" s="6"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" ht="68.5" customHeight="1">
+      <c r="A113" s="6"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="F48" t="s" s="8">
-        <v>100</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" ht="92.5" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" t="s" s="8">
+      <c r="F113" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" ht="56.5" customHeight="1">
+      <c r="A114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="F49" t="s" s="8">
-        <v>102</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="12"/>
-    </row>
-    <row r="50" ht="68.5" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" t="s" s="8">
+      <c r="F114" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" ht="44.5" customHeight="1">
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="F50" t="s" s="8">
-        <v>104</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="12"/>
-    </row>
-    <row r="51" ht="56.5" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" t="s" s="8">
+      <c r="F115" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" ht="68.5" customHeight="1">
+      <c r="A116" s="6"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" ht="104.5" customHeight="1">
+      <c r="A117" s="6"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="F51" t="s" s="8">
-        <v>106</v>
-      </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="12"/>
-    </row>
-    <row r="52" ht="44.5" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" t="s" s="8">
+      <c r="F117" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" ht="152.5" customHeight="1">
+      <c r="A118" s="6"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="F52" t="s" s="8">
-        <v>108</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="12"/>
-    </row>
-    <row r="53" ht="44.5" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" t="s" s="8">
+      <c r="F118" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" ht="44.5" customHeight="1">
+      <c r="A119" s="6"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="F53" t="s" s="8">
-        <v>110</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="12"/>
-    </row>
-    <row r="54" ht="80.5" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" t="s" s="8">
+      <c r="F119" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="G119" s="6"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" ht="44.5" customHeight="1">
+      <c r="A120" s="6"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="F54" t="s" s="8">
-        <v>112</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" ht="128.5" customHeight="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" t="s" s="8">
+      <c r="F120" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" ht="56.5" customHeight="1">
+      <c r="A121" s="6"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="F55" t="s" s="8">
-        <v>114</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="12"/>
-    </row>
-    <row r="56" ht="80.5" customHeight="1">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="F56" t="s" s="8">
+      <c r="F121" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" ht="140.5" customHeight="1">
+      <c r="A122" s="6"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" ht="92.5" customHeight="1">
+      <c r="A123" s="6"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" ht="80.5" customHeight="1">
+      <c r="A124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" ht="80.5" customHeight="1">
+      <c r="A125" s="6"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="F125" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" ht="80.5" customHeight="1">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="F57" t="s" s="8">
-        <v>118</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" ht="68.5" customHeight="1">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="F58" t="s" s="8">
-        <v>120</v>
-      </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="12"/>
-    </row>
-    <row r="59" ht="56.5" customHeight="1">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" t="s" s="8">
-        <v>121</v>
-      </c>
-      <c r="F59" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="12"/>
-    </row>
-    <row r="60" ht="32.5" customHeight="1">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" t="s" s="8">
+      <c r="G125" s="6"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" ht="92.5" customHeight="1">
+      <c r="A126" s="6"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="F60" t="s" s="8">
-        <v>124</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" ht="56.5" customHeight="1">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" t="s" s="8">
+      <c r="F126" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="G126" s="6"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" ht="68.5" customHeight="1">
+      <c r="A127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="F61" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="12"/>
-    </row>
-    <row r="62" ht="44.5" customHeight="1">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" t="s" s="8">
+      <c r="F127" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="G127" s="6"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" ht="44.5" customHeight="1">
+      <c r="A128" s="6"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="F62" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="12"/>
-    </row>
-    <row r="63" ht="104.5" customHeight="1">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" t="s" s="8">
+      <c r="F128" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="G128" s="6"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" ht="56.5" customHeight="1">
+      <c r="A129" s="6"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="F63" t="s" s="8">
+      <c r="F129" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="12"/>
-    </row>
-    <row r="64" ht="44.5" customHeight="1">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" t="s" s="8">
+      <c r="G129" s="6"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" ht="56.5" customHeight="1">
+      <c r="A130" s="6"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="F64" t="s" s="8">
-        <v>132</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="12"/>
-    </row>
-    <row r="65" ht="92.5" customHeight="1">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" t="s" s="8">
+      <c r="F130" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="G130" s="6"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" ht="56.5" customHeight="1">
+      <c r="A131" s="6"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="F65" t="s" s="8">
-        <v>134</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="12"/>
-    </row>
-    <row r="66" ht="68.5" customHeight="1">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" t="s" s="8">
+      <c r="F131" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="3"/>
+    </row>
+    <row r="132" ht="44.5" customHeight="1">
+      <c r="A132" s="6"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="F66" t="s" s="8">
+      <c r="F132" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="12"/>
-    </row>
-    <row r="67" ht="104.5" customHeight="1">
-      <c r="A67" s="13"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" t="s" s="8">
+      <c r="G132" s="6"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" ht="92.5" customHeight="1">
+      <c r="A133" s="6"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="F67" t="s" s="8">
+      <c r="F133" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="12"/>
-    </row>
-    <row r="68" ht="80.5" customHeight="1">
-      <c r="A68" s="15"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" t="s" s="8">
+      <c r="G133" s="6"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" ht="68.5" customHeight="1">
+      <c r="A134" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="F68" t="s" s="8">
+      <c r="F134" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="12"/>
-    </row>
-    <row r="69" ht="44.5" customHeight="1">
-      <c r="A69" t="s" s="7">
+      <c r="G134" s="6"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" ht="104.5" customHeight="1">
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="F135" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="B69" t="s" s="8">
+      <c r="G135" s="6"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" ht="80.5" customHeight="1">
+      <c r="A136" s="8"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="F136" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="C69" t="s" s="8">
-        <v>143</v>
-      </c>
-      <c r="D69" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="F69" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="12"/>
-    </row>
-    <row r="70" ht="44.5" customHeight="1">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="12"/>
-    </row>
-    <row r="71" ht="32.5" customHeight="1">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" t="s" s="8">
+      <c r="G136" s="8"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" ht="32.5" customHeight="1">
+      <c r="A137" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="D137" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="F71" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="12"/>
-    </row>
-    <row r="72" ht="20.5" customHeight="1">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="F72" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="12"/>
-    </row>
-    <row r="73" ht="20.5" customHeight="1">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="F73" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="12"/>
-    </row>
-    <row r="74" ht="32.5" customHeight="1">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="F74" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="12"/>
-    </row>
-    <row r="75" ht="20.5" customHeight="1">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="F75" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="12"/>
-    </row>
-    <row r="76" ht="32.5" customHeight="1">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="F76" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="12"/>
-    </row>
-    <row r="77" ht="20.5" customHeight="1">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="F77" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="12"/>
-    </row>
-    <row r="78" ht="20.5" customHeight="1">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="F78" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="12"/>
-    </row>
-    <row r="79" ht="20.5" customHeight="1">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="F79" t="s" s="8">
-        <v>144</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="12"/>
-    </row>
-    <row r="80" ht="32.5" customHeight="1">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" t="s" s="8">
+      <c r="E137" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" ht="20.5" customHeight="1">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+    </row>
+    <row r="139" ht="20.5" customHeight="1">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+    </row>
+    <row r="140" ht="20.5" customHeight="1">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+    </row>
+    <row r="141" ht="20.5" customHeight="1">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+    </row>
+    <row r="142" ht="20.5" customHeight="1">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+    </row>
+    <row r="143" ht="116.5" customHeight="1">
+      <c r="A143" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="D143" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" ht="20.5" customHeight="1">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+    </row>
+    <row r="145" ht="20.5" customHeight="1">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+    </row>
+    <row r="146" ht="20.5" customHeight="1">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+    </row>
+    <row r="147" ht="20.5" customHeight="1">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+    </row>
+    <row r="148" ht="20.5" customHeight="1">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+    </row>
+    <row r="149" ht="20.5" customHeight="1">
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+    </row>
+    <row r="150" ht="44.5" customHeight="1">
+      <c r="A150" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="D150" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="E150" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" ht="20.5" customHeight="1">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" ht="164.5" customHeight="1">
+      <c r="A152" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D152" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="E152" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" ht="20.5" customHeight="1">
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+    </row>
+    <row r="154" ht="20.5" customHeight="1">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+    </row>
+    <row r="155" ht="164.5" customHeight="1">
+      <c r="A155" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="D155" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="E155" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" ht="20.5" customHeight="1">
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+    </row>
+    <row r="157" ht="20.5" customHeight="1">
+      <c r="A157" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="D157" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="E157" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" ht="20.5" customHeight="1">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" ht="20.5" customHeight="1">
+      <c r="A159" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="D159" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="E159" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" ht="116.5" customHeight="1">
+      <c r="A160" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="D160" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="E160" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" ht="32.5" customHeight="1">
+      <c r="A161" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="D161" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="E161" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" ht="32.5" customHeight="1">
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" ht="20.5" customHeight="1">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" ht="20.5" customHeight="1">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="F164" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" ht="20.5" customHeight="1">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F165" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" ht="20.5" customHeight="1">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" ht="32.5" customHeight="1">
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" ht="32.5" customHeight="1">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" ht="20.5" customHeight="1">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="F169" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" ht="32.5" customHeight="1">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" ht="20.5" customHeight="1">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="F171" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="3"/>
+    </row>
+    <row r="172" ht="20.5" customHeight="1">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="F172" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="3"/>
+    </row>
+    <row r="173" ht="20.5" customHeight="1">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="F173" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="F80" t="s" s="8">
-        <v>145</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="12"/>
-    </row>
-    <row r="81" ht="44.5" customHeight="1">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="F81" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="12"/>
-    </row>
-    <row r="82" ht="56.5" customHeight="1">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="F82" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="12"/>
-    </row>
-    <row r="83" ht="56.5" customHeight="1">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="F83" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="12"/>
-    </row>
-    <row r="84" ht="32.5" customHeight="1">
-      <c r="A84" s="13"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F84" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="12"/>
-    </row>
-    <row r="85" ht="20.5" customHeight="1">
-      <c r="A85" s="13"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="F85" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="12"/>
-    </row>
-    <row r="86" ht="20.5" customHeight="1">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="F86" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="12"/>
-    </row>
-    <row r="87" ht="32.5" customHeight="1">
-      <c r="A87" s="15"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="12"/>
-    </row>
-    <row r="88" ht="152.5" customHeight="1">
-      <c r="A88" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="B88" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="C88" t="s" s="8">
-        <v>148</v>
-      </c>
-      <c r="D88" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="F88" t="s" s="8">
-        <v>149</v>
-      </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="12"/>
-    </row>
-    <row r="89" ht="56.5" customHeight="1">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="F89" t="s" s="8">
-        <v>150</v>
-      </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="12"/>
-    </row>
-    <row r="90" ht="92.5" customHeight="1">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" t="s" s="8">
-        <v>151</v>
-      </c>
-      <c r="F90" t="s" s="8">
-        <v>152</v>
-      </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="12"/>
-    </row>
-    <row r="91" ht="116.5" customHeight="1">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="F91" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="G91" s="9"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="12"/>
-    </row>
-    <row r="92" ht="56.5" customHeight="1">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="F92" t="s" s="8">
-        <v>153</v>
-      </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="12"/>
-    </row>
-    <row r="93" ht="32.5" customHeight="1">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="F93" t="s" s="8">
-        <v>154</v>
-      </c>
-      <c r="G93" s="9"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="12"/>
-    </row>
-    <row r="94" ht="20.5" customHeight="1">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" t="s" s="8">
-        <v>55</v>
-      </c>
-      <c r="F94" t="s" s="8">
-        <v>155</v>
-      </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="12"/>
-    </row>
-    <row r="95" ht="80.5" customHeight="1">
-      <c r="A95" s="13"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="F95" t="s" s="8">
-        <v>156</v>
-      </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="12"/>
-    </row>
-    <row r="96" ht="140.5" customHeight="1">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="F96" t="s" s="8">
-        <v>157</v>
-      </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="12"/>
-    </row>
-    <row r="97" ht="92.5" customHeight="1">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="F97" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="12"/>
-    </row>
-    <row r="98" ht="92.5" customHeight="1">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="F98" t="s" s="8">
-        <v>158</v>
-      </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="12"/>
-    </row>
-    <row r="99" ht="92.5" customHeight="1">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" t="s" s="8">
-        <v>159</v>
-      </c>
-      <c r="F99" t="s" s="8">
-        <v>160</v>
-      </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="12"/>
-    </row>
-    <row r="100" ht="80.5" customHeight="1">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="F100" t="s" s="8">
-        <v>161</v>
-      </c>
-      <c r="G100" s="9"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="12"/>
-    </row>
-    <row r="101" ht="68.5" customHeight="1">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="F101" t="s" s="8">
-        <v>162</v>
-      </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="12"/>
-    </row>
-    <row r="102" ht="56.5" customHeight="1">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="F102" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="12"/>
-    </row>
-    <row r="103" ht="44.5" customHeight="1">
-      <c r="A103" s="13"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="F103" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="G103" s="9"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="12"/>
-    </row>
-    <row r="104" ht="56.5" customHeight="1">
-      <c r="A104" s="13"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" t="s" s="8">
-        <v>75</v>
-      </c>
-      <c r="F104" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="12"/>
-    </row>
-    <row r="105" ht="44.5" customHeight="1">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" t="s" s="8">
-        <v>77</v>
-      </c>
-      <c r="F105" t="s" s="8">
-        <v>78</v>
-      </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="12"/>
-    </row>
-    <row r="106" ht="44.5" customHeight="1">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="F106" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="12"/>
-    </row>
-    <row r="107" ht="32.5" customHeight="1">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" t="s" s="8">
-        <v>81</v>
-      </c>
-      <c r="F107" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="12"/>
-    </row>
-    <row r="108" ht="32.5" customHeight="1">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" t="s" s="8">
-        <v>83</v>
-      </c>
-      <c r="F108" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="G108" s="9"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="12"/>
-    </row>
-    <row r="109" ht="32.5" customHeight="1">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="F109" t="s" s="8">
-        <v>165</v>
-      </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="12"/>
-    </row>
-    <row r="110" ht="32.5" customHeight="1">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" t="s" s="8">
-        <v>87</v>
-      </c>
-      <c r="F110" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="G110" s="9"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="12"/>
-    </row>
-    <row r="111" ht="56.5" customHeight="1">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="F111" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="G111" s="9"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="12"/>
-    </row>
-    <row r="112" ht="56.5" customHeight="1">
-      <c r="A112" s="13"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" t="s" s="8">
-        <v>93</v>
-      </c>
-      <c r="F112" t="s" s="8">
-        <v>94</v>
-      </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="12"/>
-    </row>
-    <row r="113" ht="68.5" customHeight="1">
-      <c r="A113" s="13"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="F113" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="12"/>
-    </row>
-    <row r="114" ht="56.5" customHeight="1">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="F114" t="s" s="8">
-        <v>168</v>
-      </c>
-      <c r="G114" s="9"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="12"/>
-    </row>
-    <row r="115" ht="44.5" customHeight="1">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="F115" t="s" s="8">
-        <v>169</v>
-      </c>
-      <c r="G115" s="9"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="12"/>
-    </row>
-    <row r="116" ht="68.5" customHeight="1">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" t="s" s="8">
-        <v>170</v>
-      </c>
-      <c r="F116" t="s" s="8">
-        <v>171</v>
-      </c>
-      <c r="G116" s="9"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="12"/>
-    </row>
-    <row r="117" ht="104.5" customHeight="1">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" t="s" s="8">
-        <v>101</v>
-      </c>
-      <c r="F117" t="s" s="8">
-        <v>172</v>
-      </c>
-      <c r="G117" s="9"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="12"/>
-    </row>
-    <row r="118" ht="152.5" customHeight="1">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="F118" t="s" s="8">
-        <v>173</v>
-      </c>
-      <c r="G118" s="9"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="12"/>
-    </row>
-    <row r="119" ht="44.5" customHeight="1">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="F119" t="s" s="8">
-        <v>174</v>
-      </c>
-      <c r="G119" s="9"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="12"/>
-    </row>
-    <row r="120" ht="44.5" customHeight="1">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="F120" t="s" s="8">
-        <v>175</v>
-      </c>
-      <c r="G120" s="9"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="12"/>
-    </row>
-    <row r="121" ht="56.5" customHeight="1">
-      <c r="A121" s="13"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" t="s" s="8">
-        <v>109</v>
-      </c>
-      <c r="F121" t="s" s="8">
-        <v>176</v>
-      </c>
-      <c r="G121" s="9"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="12"/>
-    </row>
-    <row r="122" ht="140.5" customHeight="1">
-      <c r="A122" s="13"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" t="s" s="8">
-        <v>113</v>
-      </c>
-      <c r="F122" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="12"/>
-    </row>
-    <row r="123" ht="92.5" customHeight="1">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="F123" t="s" s="8">
-        <v>178</v>
-      </c>
-      <c r="G123" s="9"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="12"/>
-    </row>
-    <row r="124" ht="80.5" customHeight="1">
-      <c r="A124" s="13"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="F124" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="G124" s="9"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="12"/>
-    </row>
-    <row r="125" ht="80.5" customHeight="1">
-      <c r="A125" s="13"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" t="s" s="8">
-        <v>180</v>
-      </c>
-      <c r="F125" t="s" s="8">
-        <v>112</v>
-      </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="12"/>
-    </row>
-    <row r="126" ht="92.5" customHeight="1">
-      <c r="A126" s="13"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="F126" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="12"/>
-    </row>
-    <row r="127" ht="68.5" customHeight="1">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" t="s" s="8">
-        <v>121</v>
-      </c>
-      <c r="F127" t="s" s="8">
-        <v>182</v>
-      </c>
-      <c r="G127" s="9"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="12"/>
-    </row>
-    <row r="128" ht="44.5" customHeight="1">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="F128" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="G128" s="9"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="12"/>
-    </row>
-    <row r="129" ht="56.5" customHeight="1">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" t="s" s="8">
-        <v>125</v>
-      </c>
-      <c r="F129" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="12"/>
-    </row>
-    <row r="130" ht="56.5" customHeight="1">
-      <c r="A130" s="13"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="F130" t="s" s="8">
-        <v>184</v>
-      </c>
-      <c r="G130" s="9"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="12"/>
-    </row>
-    <row r="131" ht="56.5" customHeight="1">
-      <c r="A131" s="13"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" t="s" s="8">
-        <v>129</v>
-      </c>
-      <c r="F131" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="G131" s="9"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="12"/>
-    </row>
-    <row r="132" ht="44.5" customHeight="1">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" t="s" s="8">
-        <v>131</v>
-      </c>
-      <c r="F132" t="s" s="8">
-        <v>132</v>
-      </c>
-      <c r="G132" s="9"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="12"/>
-    </row>
-    <row r="133" ht="92.5" customHeight="1">
-      <c r="A133" s="13"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" t="s" s="8">
-        <v>133</v>
-      </c>
-      <c r="F133" t="s" s="8">
-        <v>134</v>
-      </c>
-      <c r="G133" s="9"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="12"/>
-    </row>
-    <row r="134" ht="68.5" customHeight="1">
-      <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" t="s" s="8">
-        <v>135</v>
-      </c>
-      <c r="F134" t="s" s="8">
-        <v>136</v>
-      </c>
-      <c r="G134" s="9"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="12"/>
-    </row>
-    <row r="135" ht="104.5" customHeight="1">
-      <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="F135" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="G135" s="9"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="12"/>
-    </row>
-    <row r="136" ht="80.5" customHeight="1">
-      <c r="A136" s="15"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" t="s" s="8">
-        <v>139</v>
-      </c>
-      <c r="F136" t="s" s="8">
-        <v>140</v>
-      </c>
-      <c r="G136" s="9"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="12"/>
-    </row>
-    <row r="137" ht="32.5" customHeight="1">
-      <c r="A137" t="s" s="8">
-        <v>186</v>
-      </c>
-      <c r="B137" t="s" s="8">
-        <v>187</v>
-      </c>
-      <c r="C137" t="s" s="8">
-        <v>188</v>
-      </c>
-      <c r="D137" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="E137" t="s" s="8">
-        <v>189</v>
-      </c>
-      <c r="F137" t="s" s="8">
-        <v>190</v>
-      </c>
-      <c r="G137" s="9"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="12"/>
-    </row>
-    <row r="138" ht="20.5" customHeight="1">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="12"/>
-    </row>
-    <row r="139" ht="20.5" customHeight="1">
-      <c r="A139" s="14"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="12"/>
-    </row>
-    <row r="140" ht="20.5" customHeight="1">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="12"/>
-    </row>
-    <row r="141" ht="20.5" customHeight="1">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="12"/>
-    </row>
-    <row r="142" ht="20.5" customHeight="1">
-      <c r="A142" s="14"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="11"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="12"/>
-    </row>
-    <row r="143" ht="116.5" customHeight="1">
-      <c r="A143" t="s" s="8">
-        <v>191</v>
-      </c>
-      <c r="B143" t="s" s="8">
-        <v>187</v>
-      </c>
-      <c r="C143" t="s" s="8">
-        <v>192</v>
-      </c>
-      <c r="D143" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="E143" t="s" s="8">
-        <v>193</v>
-      </c>
-      <c r="F143" t="s" s="8">
-        <v>194</v>
-      </c>
-      <c r="G143" s="9"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="12"/>
-    </row>
-    <row r="144" ht="20.5" customHeight="1">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
-      <c r="K144" s="12"/>
-    </row>
-    <row r="145" ht="20.5" customHeight="1">
-      <c r="A145" s="14"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="12"/>
-    </row>
-    <row r="146" ht="20.5" customHeight="1">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="12"/>
-    </row>
-    <row r="147" ht="20.5" customHeight="1">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="12"/>
-    </row>
-    <row r="148" ht="20.5" customHeight="1">
-      <c r="A148" s="14"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="12"/>
-    </row>
-    <row r="149" ht="20.5" customHeight="1">
-      <c r="A149" s="14"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="11"/>
-      <c r="J149" s="11"/>
-      <c r="K149" s="12"/>
-    </row>
-    <row r="150" ht="44.5" customHeight="1">
-      <c r="A150" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="B150" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="C150" t="s" s="8">
-        <v>197</v>
-      </c>
-      <c r="D150" t="s" s="8">
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" ht="20.5" customHeight="1">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="F174" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" ht="20.5" customHeight="1">
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" ht="32.5" customHeight="1">
+      <c r="A176" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D176" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="E150" t="s" s="8">
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="7"/>
+    </row>
+    <row r="177" ht="20.5" customHeight="1">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+    </row>
+    <row r="178" ht="32.5" customHeight="1">
+      <c r="A178" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="D178" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="7"/>
+    </row>
+    <row r="179" ht="20.5" customHeight="1">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+    </row>
+    <row r="180" ht="32.5" customHeight="1">
+      <c r="A180" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="D180" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="E180" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="F150" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="G150" s="9"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="12"/>
-    </row>
-    <row r="151" ht="20.5" customHeight="1">
-      <c r="A151" s="14"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" t="s" s="8">
+      <c r="F180" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" ht="44.5" customHeight="1">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="F151" s="14"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="12"/>
-    </row>
-    <row r="152" ht="164.5" customHeight="1">
-      <c r="A152" t="s" s="8">
-        <v>202</v>
-      </c>
-      <c r="B152" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="C152" t="s" s="8">
-        <v>203</v>
-      </c>
-      <c r="D152" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="E152" t="s" s="8">
-        <v>199</v>
-      </c>
-      <c r="F152" t="s" s="8">
-        <v>204</v>
-      </c>
-      <c r="G152" s="9"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="12"/>
-    </row>
-    <row r="153" ht="20.5" customHeight="1">
-      <c r="A153" s="14"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="11"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="12"/>
-    </row>
-    <row r="154" ht="20.5" customHeight="1">
-      <c r="A154" s="14"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="11"/>
-      <c r="J154" s="11"/>
-      <c r="K154" s="12"/>
-    </row>
-    <row r="155" ht="164.5" customHeight="1">
-      <c r="A155" t="s" s="8">
-        <v>205</v>
-      </c>
-      <c r="B155" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="C155" t="s" s="8">
-        <v>206</v>
-      </c>
-      <c r="D155" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="E155" t="s" s="8">
-        <v>199</v>
-      </c>
-      <c r="F155" t="s" s="8">
-        <v>207</v>
-      </c>
-      <c r="G155" s="9"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="12"/>
-    </row>
-    <row r="156" ht="20.5" customHeight="1">
-      <c r="A156" s="14"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="12"/>
-    </row>
-    <row r="157" ht="20.5" customHeight="1">
-      <c r="A157" t="s" s="8">
-        <v>208</v>
-      </c>
-      <c r="B157" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="C157" t="s" s="8">
-        <v>209</v>
-      </c>
-      <c r="D157" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="E157" t="s" s="8">
-        <v>199</v>
-      </c>
-      <c r="F157" t="s" s="8">
-        <v>210</v>
-      </c>
-      <c r="G157" s="9"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="11"/>
-      <c r="K157" s="12"/>
-    </row>
-    <row r="158" ht="20.5" customHeight="1">
-      <c r="A158" s="14"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" t="s" s="8">
-        <v>201</v>
-      </c>
-      <c r="F158" t="s" s="8">
-        <v>211</v>
-      </c>
-      <c r="G158" s="9"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="12"/>
-    </row>
-    <row r="159" ht="20.5" customHeight="1">
-      <c r="A159" t="s" s="8">
-        <v>212</v>
-      </c>
-      <c r="B159" t="s" s="8">
-        <v>213</v>
-      </c>
-      <c r="C159" t="s" s="8">
-        <v>214</v>
-      </c>
-      <c r="D159" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="E159" t="s" s="8">
-        <v>199</v>
-      </c>
-      <c r="F159" t="s" s="8">
-        <v>215</v>
-      </c>
-      <c r="G159" s="9"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="11"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="12"/>
-    </row>
-    <row r="160" ht="116.5" customHeight="1">
-      <c r="A160" t="s" s="8">
-        <v>216</v>
-      </c>
-      <c r="B160" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="C160" t="s" s="8">
-        <v>217</v>
-      </c>
-      <c r="D160" t="s" s="8">
-        <v>218</v>
-      </c>
-      <c r="E160" t="s" s="8">
-        <v>199</v>
-      </c>
-      <c r="F160" t="s" s="8">
-        <v>219</v>
-      </c>
-      <c r="G160" s="9"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="11"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="12"/>
-    </row>
-    <row r="161" ht="32.5" customHeight="1">
-      <c r="A161" t="s" s="8">
-        <v>220</v>
-      </c>
-      <c r="B161" t="s" s="8">
-        <v>221</v>
-      </c>
-      <c r="C161" t="s" s="8">
-        <v>222</v>
-      </c>
-      <c r="D161" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="E161" t="s" s="8">
-        <v>223</v>
-      </c>
-      <c r="F161" t="s" s="8">
-        <v>224</v>
-      </c>
-      <c r="G161" s="9"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="11"/>
-      <c r="J161" s="11"/>
-      <c r="K161" s="12"/>
-    </row>
-    <row r="162" ht="32.5" customHeight="1">
-      <c r="A162" s="14"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" t="s" s="8">
-        <v>201</v>
-      </c>
-      <c r="F162" t="s" s="8">
-        <v>225</v>
-      </c>
-      <c r="G162" s="9"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="11"/>
-      <c r="J162" s="11"/>
-      <c r="K162" s="12"/>
-    </row>
-    <row r="163" ht="20.5" customHeight="1">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" t="s" s="8">
+      <c r="F181" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" ht="44.5" customHeight="1">
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="F163" t="s" s="8">
-        <v>227</v>
-      </c>
-      <c r="G163" s="9"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="11"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="12"/>
-    </row>
-    <row r="164" ht="20.5" customHeight="1">
-      <c r="A164" s="14"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" t="s" s="8">
+      <c r="F182" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" ht="44.5" customHeight="1">
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="F164" t="s" s="8">
-        <v>229</v>
-      </c>
-      <c r="G164" s="9"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="12"/>
-    </row>
-    <row r="165" ht="20.5" customHeight="1">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" t="s" s="8">
+      <c r="F183" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" ht="20.5" customHeight="1">
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="F165" t="s" s="8">
-        <v>231</v>
-      </c>
-      <c r="G165" s="9"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="12"/>
-    </row>
-    <row r="166" ht="20.5" customHeight="1">
-      <c r="A166" s="14"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" t="s" s="8">
+      <c r="F184" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" ht="20.5" customHeight="1">
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="F166" t="s" s="8">
-        <v>233</v>
-      </c>
-      <c r="G166" s="9"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="11"/>
-      <c r="K166" s="12"/>
-    </row>
-    <row r="167" ht="32.5" customHeight="1">
-      <c r="A167" s="14"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" t="s" s="8">
+      <c r="F185" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" ht="20.5" customHeight="1">
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="F167" t="s" s="8">
-        <v>235</v>
-      </c>
-      <c r="G167" s="9"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="11"/>
-      <c r="J167" s="11"/>
-      <c r="K167" s="12"/>
-    </row>
-    <row r="168" ht="32.5" customHeight="1">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" t="s" s="8">
-        <v>236</v>
-      </c>
-      <c r="F168" t="s" s="8">
-        <v>237</v>
-      </c>
-      <c r="G168" s="9"/>
-      <c r="H168" s="10"/>
-      <c r="I168" s="11"/>
-      <c r="J168" s="11"/>
-      <c r="K168" s="12"/>
-    </row>
-    <row r="169" ht="20.5" customHeight="1">
-      <c r="A169" s="14"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" t="s" s="8">
-        <v>238</v>
-      </c>
-      <c r="F169" t="s" s="8">
-        <v>239</v>
-      </c>
-      <c r="G169" s="9"/>
-      <c r="H169" s="10"/>
-      <c r="I169" s="11"/>
-      <c r="J169" s="11"/>
-      <c r="K169" s="12"/>
-    </row>
-    <row r="170" ht="32.5" customHeight="1">
-      <c r="A170" s="14"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" t="s" s="8">
-        <v>240</v>
-      </c>
-      <c r="F170" t="s" s="8">
-        <v>241</v>
-      </c>
-      <c r="G170" s="9"/>
-      <c r="H170" s="10"/>
-      <c r="I170" s="11"/>
-      <c r="J170" s="11"/>
-      <c r="K170" s="12"/>
-    </row>
-    <row r="171" ht="20.5" customHeight="1">
-      <c r="A171" s="14"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" t="s" s="8">
-        <v>242</v>
-      </c>
-      <c r="F171" t="s" s="8">
-        <v>243</v>
-      </c>
-      <c r="G171" s="9"/>
-      <c r="H171" s="10"/>
-      <c r="I171" s="11"/>
-      <c r="J171" s="11"/>
-      <c r="K171" s="12"/>
-    </row>
-    <row r="172" ht="20.5" customHeight="1">
-      <c r="A172" s="14"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" t="s" s="8">
-        <v>244</v>
-      </c>
-      <c r="F172" t="s" s="8">
-        <v>245</v>
-      </c>
-      <c r="G172" s="9"/>
-      <c r="H172" s="10"/>
-      <c r="I172" s="11"/>
-      <c r="J172" s="11"/>
-      <c r="K172" s="12"/>
-    </row>
-    <row r="173" ht="20.5" customHeight="1">
-      <c r="A173" s="14"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" t="s" s="8">
-        <v>246</v>
-      </c>
-      <c r="F173" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="G173" s="9"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="12"/>
-    </row>
-    <row r="174" ht="20.5" customHeight="1">
-      <c r="A174" s="14"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" t="s" s="8">
-        <v>247</v>
-      </c>
-      <c r="F174" t="s" s="8">
-        <v>248</v>
-      </c>
-      <c r="G174" s="9"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="11"/>
-      <c r="J174" s="11"/>
-      <c r="K174" s="12"/>
-    </row>
-    <row r="175" ht="20.5" customHeight="1">
-      <c r="A175" s="14"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-      <c r="E175" t="s" s="8">
-        <v>249</v>
-      </c>
-      <c r="F175" t="s" s="8">
-        <v>250</v>
-      </c>
-      <c r="G175" s="9"/>
-      <c r="H175" s="10"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="11"/>
-      <c r="K175" s="12"/>
-    </row>
-    <row r="176" ht="32.5" customHeight="1">
-      <c r="A176" t="s" s="8">
-        <v>251</v>
-      </c>
-      <c r="B176" t="s" s="8">
-        <v>221</v>
-      </c>
-      <c r="C176" t="s" s="8">
-        <v>252</v>
-      </c>
-      <c r="D176" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="11"/>
-      <c r="J176" s="11"/>
-      <c r="K176" s="12"/>
-    </row>
-    <row r="177" ht="20.5" customHeight="1">
-      <c r="A177" s="14"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="11"/>
-      <c r="K177" s="12"/>
-    </row>
-    <row r="178" ht="32.5" customHeight="1">
-      <c r="A178" t="s" s="8">
-        <v>253</v>
-      </c>
-      <c r="B178" t="s" s="8">
-        <v>221</v>
-      </c>
-      <c r="C178" t="s" s="8">
-        <v>254</v>
-      </c>
-      <c r="D178" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="10"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="11"/>
-      <c r="K178" s="12"/>
-    </row>
-    <row r="179" ht="20.5" customHeight="1">
-      <c r="A179" s="14"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="10"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="11"/>
-      <c r="K179" s="12"/>
-    </row>
-    <row r="180" ht="32.5" customHeight="1">
-      <c r="A180" t="s" s="8">
-        <v>255</v>
-      </c>
-      <c r="B180" t="s" s="8">
-        <v>256</v>
-      </c>
-      <c r="C180" t="s" s="8">
-        <v>257</v>
-      </c>
-      <c r="D180" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="E180" t="s" s="8">
-        <v>199</v>
-      </c>
-      <c r="F180" t="s" s="8">
-        <v>258</v>
-      </c>
-      <c r="G180" s="9"/>
-      <c r="H180" s="10"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="11"/>
-      <c r="K180" s="12"/>
-    </row>
-    <row r="181" ht="44.5" customHeight="1">
-      <c r="A181" s="14"/>
-      <c r="B181" s="14"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" t="s" s="8">
-        <v>201</v>
-      </c>
-      <c r="F181" t="s" s="8">
-        <v>259</v>
-      </c>
-      <c r="G181" s="9"/>
-      <c r="H181" s="10"/>
-      <c r="I181" s="11"/>
-      <c r="J181" s="11"/>
-      <c r="K181" s="12"/>
-    </row>
-    <row r="182" ht="44.5" customHeight="1">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" t="s" s="8">
-        <v>226</v>
-      </c>
-      <c r="F182" t="s" s="8">
-        <v>260</v>
-      </c>
-      <c r="G182" s="9"/>
-      <c r="H182" s="10"/>
-      <c r="I182" s="11"/>
-      <c r="J182" s="11"/>
-      <c r="K182" s="12"/>
-    </row>
-    <row r="183" ht="44.5" customHeight="1">
-      <c r="A183" s="14"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" t="s" s="8">
-        <v>228</v>
-      </c>
-      <c r="F183" t="s" s="8">
-        <v>261</v>
-      </c>
-      <c r="G183" s="9"/>
-      <c r="H183" s="10"/>
-      <c r="I183" s="11"/>
-      <c r="J183" s="11"/>
-      <c r="K183" s="12"/>
-    </row>
-    <row r="184" ht="20.5" customHeight="1">
-      <c r="A184" s="14"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" t="s" s="8">
-        <v>262</v>
-      </c>
-      <c r="F184" t="s" s="8">
-        <v>263</v>
-      </c>
-      <c r="G184" s="9"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="17"/>
-      <c r="J184" s="17"/>
-      <c r="K184" s="18"/>
+      <c r="F186" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="8">
+    <mergeCell ref="G2:G20"/>
+    <mergeCell ref="G21:G68"/>
+    <mergeCell ref="G69:G87"/>
+    <mergeCell ref="G88:G136"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A68"/>
     <mergeCell ref="A69:A87"/>

--- a/data/Data Dictionary.xlsx
+++ b/data/Data Dictionary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <r>
       <rPr>
@@ -440,6 +440,926 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
+      <t>POE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Points of entry </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Chemical events</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>RE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Radiation emergencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>JEE 1.0 indicator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>JEE1IND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Legislation, laws, regulations, administrative requirements, policies or other government instruments in place are sufficient for implementation of IHR (2005)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The State can demonstrate that it has adjusted and aligned its domestic legislation, policies and administrative arrangements to enable compliance with IHR (2005)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>A functional mechanism is established for the coordination and integration of relevant sectors in the implementation of IHR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Antimicrobial resistance detection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Surveillance of infections caused by antimicrobial-resistant pathogens</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Health care-associated infection (HCAI) prevention and control programs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Antimicrobial stewardship activities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Surveillance systems in place for priority zoonotic diseases/pathogens</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P42</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Veterinary or animal health workforce</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Mechanisms for responding to infectious and potential zoonotic diseases are established and functional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Mechanisms for multisectoral collaboration are established to ensure rapid response to food safety emergencies and outbreaks of foodborne diseases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P61</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Whole-of-government biosafety and biosecurity system is in place for human, animal, and agriculture facilities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P62</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Biosafety and biosecurity training and practices</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P71</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Vaccine coverage (measles) as part of national program</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P72</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>National vaccine access and delivery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Laboratory testing for detection of priority diseases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Specimen transport and referral system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Effective modern point-of-care laboratory-based diagnostics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Laboratory quality system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Indicator- and event-based surveillance systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Interoperable, interconnected, electronic real-time reporting system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Integration and analysis of surveillance data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Syndromic surveillance systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System for efficient reporting to FAO, OIE and WHO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Reporting network and protocols in country</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Human resources available to implement IHR core capacity requirements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D42</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>FETP or other applied epidemiology training program in place</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Workforce strategy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>National multi-hazard public health emergency preparedness and response plan is developed and implemented</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Priority public health risks and resources are mapped and utilized</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Capacity to activate emergency operations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>EOC operating procedures and plans</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Emergency operations program</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Case management procedures implemented for IHR relevant hazards</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Public health and security authorities (e.g., law enforcement, border control, customs) are linked during a suspect or confirmed biological event</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System in place for sending and receiving medical countermeasures during a public health emergency</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R42</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System in place for sending and receiving health personnel during a public health emergency</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Risk communication systems (plans, mechanisms, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R52</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Internal and partner communication and coordination</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R53</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Public communication</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Communication engagement with affected communities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Dynamic listening and rumor management</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t>POE1</t>
     </r>
   </si>
@@ -450,7 +1370,587 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Points of entry </t>
+      <t>Routine capacities established and functioning for detecting and responding to chemical events or emergencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POE2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Effective public health response at points of entry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CE1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Mechanisms established and functioning for detecting and responding to chemical events or emergencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CE2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Enabling environment in place for management of chemical events</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>RE1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Mechanisms established and functioning for detecting and responding to radiological and nuclear emergencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>RE2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Enabling environment in place for management of radiation emergencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>JEE 2.0 capacity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>JEE 2.0 tool</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>JEE2CAP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Human resources</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Emergency preparedness</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Medical countermeasures and personnel deployment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>JEE 2.0 indicator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>JEE2IND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>The State has assessed, adjusted and aligned its domestic legislation, policies and administrative arrangements to enable compliance with IHR (2005)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Financing is available for implementation of IHR capacities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>A financing mechanism and funds are available for timely response to public health emergencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Effective multisectoral coordination on AMR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Surveillance of AMR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>IPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Optimize use of antimicrobial medicines in human and animal health and agriculture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Coordinated surveillance systems in place in animal and public health sectors for zoonotic diseases/pathogens identified as joint priorities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Surveillance in place for detection and monitoring of foodborne diseases and food contamination</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>P52</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Mechanisms are established and functional for the response and management of food safety emergencies </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Whole-of-government biosafety and biosecurity system is in place for all sectors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Biosafety and biosecurity training and practices in all relevant sectors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Effective national diagnostic network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Surveillance systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Use of electronic tools</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Analysis of surveillance data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>An up-to-date multisectoral workforce strategy is in place</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Human resources available to effectively implement IHR </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>In-service trainings are available</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>FETP or other applied epidemiology training program is in place</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Strategic emergency risk assessments conducted, and emergency resources identified and mapped</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>National multisectoral multi-hazard emergency preparedness measures, including emergency response plans, area developed, implemented and tested</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Emergency response coordination</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>EOC capacities, procedures and plans</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Emergency exercise management program</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Public health and security authorities (e.g., law enforcement, border control, customs) linked during a suspect or confirmed biological, chemical or radiological event</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System in place for activating and coordinating medical countermeasures during a public health emergency</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>System in place for activating and coordinating health personnel during a public health emergency</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Risk communication systems for unusual/unexpected events and emergencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Internal and partner coordination for emergency risk communication</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Public communication for emergencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Addressing perceptions, risky behaviors and misinformation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Routine capacities established at points of entry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>SPAR 2018 capacity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>SPAR 2018 tool</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>SPARCAP</t>
     </r>
   </si>
   <si>
@@ -470,917 +1970,27 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Chemical events</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Radiation emergencies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>JEE 1.0 indicator</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>JEE1IND</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Legislation, laws, regulations, administrative requirements, policies or other government instruments in place are sufficient for implementation of IHR (2005)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>The State can demonstrate that it has adjusted and aligned its domestic legislation, policies and administrative arrangements to enable compliance with IHR (2005)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>A functional mechanism is established for the coordination and integration of relevant sectors in the implementation of IHR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Antimicrobial resistance detection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Surveillance of infections caused by antimicrobial-resistant pathogens</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Health care-associated infection (HCAI) prevention and control programs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Antimicrobial stewardship activities</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P41</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Surveillance systems in place for priority zoonotic diseases/pathogens</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P42</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Veterinary or animal health workforce</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P43</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Mechanisms for responding to infectious and potential zoonotic diseases are established and functional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P51</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Mechanisms for multisectoral collaboration are established to ensure rapid response to food safety emergencies and outbreaks of foodborne diseases</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P61</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Whole-of-government biosafety and biosecurity system is in place for human, animal, and agriculture facilities</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P62</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Biosafety and biosecurity training and practices</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P71</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Vaccine coverage (measles) as part of national program</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P72</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>National vaccine access and delivery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Laboratory testing for detection of priority diseases</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Specimen transport and referral system</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Effective modern point-of-care laboratory-based diagnostics</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Laboratory quality system</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Indicator- and event-based surveillance systems</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Interoperable, interconnected, electronic real-time reporting system</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Integration and analysis of surveillance data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Syndromic surveillance systems</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>System for efficient reporting to FAO, OIE and WHO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Reporting network and protocols in country</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D41</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Human resources available to implement IHR core capacity requirements</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D42</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>FETP or other applied epidemiology training program in place</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D43</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Workforce strategy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>National multi-hazard public health emergency preparedness and response plan is developed and implemented</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Priority public health risks and resources are mapped and utilized</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Capacity to activate emergency operations</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>EOC operating procedures and plans</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Emergency operations program</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Case management procedures implemented for IHR relevant hazards</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Public health and security authorities (e.g., law enforcement, border control, customs) are linked during a suspect or confirmed biological event</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R41</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>System in place for sending and receiving medical countermeasures during a public health emergency</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R42</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>System in place for sending and receiving health personnel during a public health emergency</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R51</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Risk communication systems (plans, mechanisms, etc.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R52</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Internal and partner communication and coordination</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R53</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Public communication</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R54</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Communication engagement with affected communities</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R55</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Dynamic listening and rumor management</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>POE11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Routine capacities established and functioning for detecting and responding to chemical events or emergencies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>POE12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Effective public health response at points of entry</t>
+      <t>Legislation and Financing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>SPAR 2018 indicator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>SPARIND</t>
     </r>
   </si>
   <si>
@@ -1391,566 +2001,6 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>C11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Mechanisms established and functioning for detecting and responding to chemical events or emergencies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>C12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Enabling environment in place for management of chemical events</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Mechanisms established and functioning for detecting and responding to radiological and nuclear emergencies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Enabling environment in place for management of radiation emergencies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>JEE 2.0 capacity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>JEE 2.0 tool</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>JEE2CAP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Human resources</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Emergency preparedness</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Medical countermeasures and personnel deployment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>JEE 2.0 indicator</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>JEE2IND</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>The State has assessed, adjusted and aligned its domestic legislation, policies and administrative arrangements to enable compliance with IHR (2005)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Financing is available for implementation of IHR capacities</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>A financing mechanism and funds are available for timely response to public health emergencies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Effective multisectoral coordination on AMR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Surveillance of AMR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>IPC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Optimize use of antimicrobial medicines in human and animal health and agriculture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Coordinated surveillance systems in place in animal and public health sectors for zoonotic diseases/pathogens identified as joint priorities</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Surveillance in place for detection and monitoring of foodborne diseases and food contamination</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>P52</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Mechanisms are established and functional for the response and management of food safety emergencies </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Whole-of-government biosafety and biosecurity system is in place for all sectors</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Biosafety and biosecurity training and practices in all relevant sectors</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Effective national diagnostic network</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Surveillance systems</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Use of electronic tools</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Analysis of surveillance data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>An up-to-date multisectoral workforce strategy is in place</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Human resources available to effectively implement IHR </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>In-service trainings are available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>FETP or other applied epidemiology training program is in place</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Strategic emergency risk assessments conducted, and emergency resources identified and mapped</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>National multisectoral multi-hazard emergency preparedness measures, including emergency response plans, area developed, implemented and tested</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Emergency response coordination</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>EOC capacities, procedures and plans</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Emergency exercise management program</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Public health and security authorities (e.g., law enforcement, border control, customs) linked during a suspect or confirmed biological, chemical or radiological event</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>System in place for activating and coordinating medical countermeasures during a public health emergency</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>System in place for activating and coordinating health personnel during a public health emergency</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>R43</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Risk communication systems for unusual/unexpected events and emergencies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Internal and partner coordination for emergency risk communication</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Public communication for emergencies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Addressing perceptions, risky behaviors and misinformation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Routine capacities established at points of entry</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SPAR 2018 capacity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SPAR 2018 tool</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SPARCAP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Legislation and Financing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SPAR 2018 indicator</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SPARIND</t>
     </r>
   </si>
   <si>
@@ -4414,10 +4464,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7"/>
@@ -4427,22 +4477,22 @@
     </row>
     <row r="21" ht="140.5" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>7</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>9</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
@@ -4456,10 +4506,10 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
@@ -4473,10 +4523,10 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
@@ -4490,10 +4540,10 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
@@ -4507,10 +4557,10 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
@@ -4524,10 +4574,10 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
@@ -4541,10 +4591,10 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
@@ -4558,10 +4608,10 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
@@ -4575,10 +4625,10 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
@@ -4592,10 +4642,10 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
@@ -4609,10 +4659,10 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
@@ -4626,10 +4676,10 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
@@ -4643,10 +4693,10 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
@@ -4660,10 +4710,10 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
@@ -4677,10 +4727,10 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
@@ -4694,10 +4744,10 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
@@ -4711,10 +4761,10 @@
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
@@ -4728,10 +4778,10 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="7"/>
@@ -4745,10 +4795,10 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="7"/>
@@ -4762,10 +4812,10 @@
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="7"/>
@@ -4779,10 +4829,10 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="7"/>
@@ -4796,10 +4846,10 @@
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="7"/>
@@ -4813,10 +4863,10 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
@@ -4830,10 +4880,10 @@
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
@@ -4847,10 +4897,10 @@
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
@@ -4864,10 +4914,10 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
@@ -4881,10 +4931,10 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="7"/>
@@ -4898,10 +4948,10 @@
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="7"/>
@@ -4915,10 +4965,10 @@
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="7"/>
@@ -4932,10 +4982,10 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="7"/>
@@ -4949,10 +4999,10 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="7"/>
@@ -4966,10 +5016,10 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
@@ -4983,10 +5033,10 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7"/>
@@ -5000,10 +5050,10 @@
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="7"/>
@@ -5017,10 +5067,10 @@
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="7"/>
@@ -5034,10 +5084,10 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="7"/>
@@ -5051,10 +5101,10 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7"/>
@@ -5068,10 +5118,10 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="7"/>
@@ -5085,10 +5135,10 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7"/>
@@ -5102,10 +5152,10 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="7"/>
@@ -5119,10 +5169,10 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7"/>
@@ -5136,10 +5186,10 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="7"/>
@@ -5153,10 +5203,10 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7"/>
@@ -5170,10 +5220,10 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="7"/>
@@ -5187,10 +5237,10 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7"/>
@@ -5204,10 +5254,10 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7"/>
@@ -5221,10 +5271,10 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" t="s" s="2">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="7"/>
@@ -5238,10 +5288,10 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="7"/>
@@ -5251,13 +5301,13 @@
     </row>
     <row r="69" ht="44.5" customHeight="1">
       <c r="A69" t="s" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>9</v>
@@ -5436,7 +5486,7 @@
         <v>30</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="7"/>
@@ -5453,7 +5503,7 @@
         <v>32</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="7"/>
@@ -5504,7 +5554,7 @@
         <v>38</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="7"/>
@@ -5569,10 +5619,10 @@
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="7"/>
@@ -5582,22 +5632,22 @@
     </row>
     <row r="88" ht="152.5" customHeight="1">
       <c r="A88" t="s" s="4">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>9</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="3"/>
@@ -5611,10 +5661,10 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="7"/>
@@ -5628,10 +5678,10 @@
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="7"/>
@@ -5645,10 +5695,10 @@
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="7"/>
@@ -5662,10 +5712,10 @@
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="7"/>
@@ -5679,10 +5729,10 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="7"/>
@@ -5696,10 +5746,10 @@
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="7"/>
@@ -5713,10 +5763,10 @@
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="7"/>
@@ -5730,10 +5780,10 @@
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="7"/>
@@ -5747,10 +5797,10 @@
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="7"/>
@@ -5764,10 +5814,10 @@
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="7"/>
@@ -5781,10 +5831,10 @@
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="7"/>
@@ -5798,10 +5848,10 @@
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="7"/>
@@ -5815,10 +5865,10 @@
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="7"/>
@@ -5832,10 +5882,10 @@
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="7"/>
@@ -5849,10 +5899,10 @@
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="7"/>
@@ -5866,10 +5916,10 @@
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="7"/>
@@ -5883,10 +5933,10 @@
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="7"/>
@@ -5900,10 +5950,10 @@
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="7"/>
@@ -5917,10 +5967,10 @@
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="7"/>
@@ -5934,10 +5984,10 @@
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="7"/>
@@ -5951,10 +6001,10 @@
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="7"/>
@@ -5968,10 +6018,10 @@
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="7"/>
@@ -5985,10 +6035,10 @@
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="7"/>
@@ -6002,10 +6052,10 @@
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="7"/>
@@ -6019,10 +6069,10 @@
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="7"/>
@@ -6036,10 +6086,10 @@
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="7"/>
@@ -6053,10 +6103,10 @@
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="7"/>
@@ -6070,10 +6120,10 @@
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="7"/>
@@ -6087,10 +6137,10 @@
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="7"/>
@@ -6104,10 +6154,10 @@
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="7"/>
@@ -6121,10 +6171,10 @@
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="7"/>
@@ -6138,10 +6188,10 @@
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="7"/>
@@ -6155,10 +6205,10 @@
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="7"/>
@@ -6172,10 +6222,10 @@
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="7"/>
@@ -6189,10 +6239,10 @@
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="7"/>
@@ -6206,10 +6256,10 @@
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="7"/>
@@ -6223,10 +6273,10 @@
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="7"/>
@@ -6240,10 +6290,10 @@
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="7"/>
@@ -6257,10 +6307,10 @@
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="7"/>
@@ -6274,10 +6324,10 @@
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="7"/>
@@ -6291,10 +6341,10 @@
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="7"/>
@@ -6308,10 +6358,10 @@
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="7"/>
@@ -6325,10 +6375,10 @@
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="7"/>
@@ -6342,10 +6392,10 @@
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7"/>
@@ -6359,10 +6409,10 @@
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="7"/>
@@ -6376,10 +6426,10 @@
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7"/>
@@ -6393,10 +6443,10 @@
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" t="s" s="2">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="7"/>
@@ -6410,10 +6460,10 @@
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="7"/>
@@ -6423,22 +6473,22 @@
     </row>
     <row r="137" ht="32.5" customHeight="1">
       <c r="A137" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D137" t="s" s="2">
         <v>9</v>
       </c>
       <c r="E137" t="s" s="2">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -6513,22 +6563,22 @@
     </row>
     <row r="143" ht="116.5" customHeight="1">
       <c r="A143" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="B143" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="C143" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>9</v>
       </c>
       <c r="E143" t="s" s="2">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -6616,22 +6666,22 @@
     </row>
     <row r="150" ht="44.5" customHeight="1">
       <c r="A150" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D150" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E150" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -6645,7 +6695,7 @@
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
@@ -6656,22 +6706,22 @@
     </row>
     <row r="152" ht="164.5" customHeight="1">
       <c r="A152" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C152" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="D152" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="D152" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="E152" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -6707,22 +6757,22 @@
     </row>
     <row r="155" ht="164.5" customHeight="1">
       <c r="A155" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E155" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -6745,22 +6795,22 @@
     </row>
     <row r="157" ht="20.5" customHeight="1">
       <c r="A157" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E157" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -6774,10 +6824,10 @@
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
@@ -6787,22 +6837,22 @@
     </row>
     <row r="159" ht="20.5" customHeight="1">
       <c r="A159" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D159" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E159" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -6812,22 +6862,22 @@
     </row>
     <row r="160" ht="116.5" customHeight="1">
       <c r="A160" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E160" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -6837,22 +6887,22 @@
     </row>
     <row r="161" ht="32.5" customHeight="1">
       <c r="A161" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D161" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E161" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -6866,10 +6916,10 @@
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
@@ -6883,10 +6933,10 @@
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
@@ -6900,10 +6950,10 @@
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
@@ -6917,10 +6967,10 @@
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
@@ -6934,10 +6984,10 @@
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
@@ -6951,10 +7001,10 @@
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
@@ -6968,10 +7018,10 @@
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
@@ -6985,10 +7035,10 @@
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
@@ -7002,10 +7052,10 @@
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
@@ -7019,10 +7069,10 @@
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
@@ -7036,10 +7086,10 @@
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
@@ -7053,7 +7103,7 @@
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F173" t="s" s="2">
         <v>27</v>
@@ -7070,10 +7120,10 @@
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
@@ -7087,10 +7137,10 @@
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
@@ -7100,16 +7150,16 @@
     </row>
     <row r="176" ht="32.5" customHeight="1">
       <c r="A176" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D176" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
@@ -7134,16 +7184,16 @@
     </row>
     <row r="178" ht="32.5" customHeight="1">
       <c r="A178" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D178" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
@@ -7168,22 +7218,22 @@
     </row>
     <row r="180" ht="32.5" customHeight="1">
       <c r="A180" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E180" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -7197,10 +7247,10 @@
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
@@ -7214,10 +7264,10 @@
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
@@ -7231,10 +7281,10 @@
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
@@ -7248,10 +7298,10 @@
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
@@ -7265,10 +7315,10 @@
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
@@ -7282,10 +7332,10 @@
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F186" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>

--- a/data/Data Dictionary.xlsx
+++ b/data/Data Dictionary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
   <si>
     <r>
       <rPr>
@@ -1974,6 +1974,78 @@
     </r>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>IHR Coordination and National IHR Focal Point Functions</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Zoonotic events and the human-animal interface</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Food safety</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Surveillance</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>Human resources</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>National health emergency framework</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>Health service provision</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Risk communication</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Points of entry</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Chemical events</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>Radiation emergencies</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2014,6 +2086,138 @@
     </r>
   </si>
   <si>
+    <t>Financing for the implementation of IHR capacities</t>
+  </si>
+  <si>
+    <t>Financing mechanism and funds for timely response to public health emergencies</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>National IHR Focal Point functions under IHR</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>Multisectoral IHR coordination mechanisms</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>Collaborative effort on activities to address zoonoses</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>Multisectoral collaboration mechanism for food safety events</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>Specimen referral and transport system</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>Implementation of a laboratory biosafety and biosecurity regime</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>Access to laboratory testing capacity for priority diseases</t>
+  </si>
+  <si>
+    <t>C61</t>
+  </si>
+  <si>
+    <t>Early warning function: indicator- and event-based surveillance</t>
+  </si>
+  <si>
+    <t>C62</t>
+  </si>
+  <si>
+    <t>Mechanism for event management (verification, risk assessment, analysis invesgitation)</t>
+  </si>
+  <si>
+    <t>C71</t>
+  </si>
+  <si>
+    <t>Human resources for implementation of IHR capacities</t>
+  </si>
+  <si>
+    <t>C81</t>
+  </si>
+  <si>
+    <t>Planning for emergency preparedness and response mechanism</t>
+  </si>
+  <si>
+    <t>C82</t>
+  </si>
+  <si>
+    <t>Management of health emergency response operations</t>
+  </si>
+  <si>
+    <t>C83</t>
+  </si>
+  <si>
+    <t>Emergency resource mobilization</t>
+  </si>
+  <si>
+    <t>C91</t>
+  </si>
+  <si>
+    <t>Case management capacity for IHR relevant hazards</t>
+  </si>
+  <si>
+    <t>C92</t>
+  </si>
+  <si>
+    <t>Capacity for infection prevention and control and chemical and radiation decontamination</t>
+  </si>
+  <si>
+    <t>C93</t>
+  </si>
+  <si>
+    <t>Access to essential health services</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>Capacity for emergency risk communications</t>
+  </si>
+  <si>
+    <t>C111</t>
+  </si>
+  <si>
+    <t>Core capacity requirements at all times for designated airports, ports and ground crossings</t>
+  </si>
+  <si>
+    <t>C112</t>
+  </si>
+  <si>
+    <t>Effective public health response at points of entry</t>
+  </si>
+  <si>
+    <t>C121</t>
+  </si>
+  <si>
+    <t>Resources for detection and alert</t>
+  </si>
+  <si>
+    <t>C131</t>
+  </si>
+  <si>
+    <t>Capacity and resources</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2110,15 +2314,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Domestic legislation, laws, regulations, policy and administrative requirements are available in all relevant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">Domestic legislation, laws, regulations, policy and administrative requirements are available in all relevant
 </t>
     </r>
     <r>
@@ -2137,15 +2333,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Benchmark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">Benchmark
 </t>
     </r>
     <r>
@@ -2174,15 +2362,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>To assess, adjust and align domestic legislation, laws, regulations, policy and administrative requirements in all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">To assess, adjust and align domestic legislation, laws, regulations, policy and administrative requirements in all
 </t>
     </r>
     <r>
@@ -2351,15 +2531,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">1
 </t>
     </r>
   </si>
@@ -2812,12 +2984,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2827,61 +2999,128 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
-      <top>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </right>
-      <top>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2891,33 +3130,51 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2936,8 +3193,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffc0c0c0"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2948,15 +3206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1229906</xdr:colOff>
+      <xdr:colOff>1210856</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>348541</xdr:rowOff>
+      <xdr:rowOff>329488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>264706</xdr:colOff>
+      <xdr:colOff>245656</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>640641</xdr:rowOff>
+      <xdr:rowOff>621588</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2965,7 +3223,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11186706" y="39904596"/>
+          <a:off x="11167656" y="39885543"/>
           <a:ext cx="1524001" cy="292101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4109,7 +4367,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6501,8 +6759,12 @@
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
+      <c r="E138" t="s" s="9">
+        <v>196</v>
+      </c>
+      <c r="F138" t="s" s="9">
+        <v>197</v>
+      </c>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
@@ -6514,8 +6776,12 @@
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
+      <c r="E139" t="s" s="9">
+        <v>198</v>
+      </c>
+      <c r="F139" t="s" s="9">
+        <v>199</v>
+      </c>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
@@ -6527,8 +6793,12 @@
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
+      <c r="E140" t="s" s="9">
+        <v>200</v>
+      </c>
+      <c r="F140" t="s" s="9">
+        <v>201</v>
+      </c>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
@@ -6540,8 +6810,12 @@
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="E141" t="s" s="9">
+        <v>202</v>
+      </c>
+      <c r="F141" t="s" s="9">
+        <v>203</v>
+      </c>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
@@ -6553,46 +6827,46 @@
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
+      <c r="E142" t="s" s="9">
+        <v>204</v>
+      </c>
+      <c r="F142" t="s" s="9">
+        <v>205</v>
+      </c>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
-    <row r="143" ht="116.5" customHeight="1">
-      <c r="A143" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="D143" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E143" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="F143" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
+    <row r="143" ht="20.5" customHeight="1">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" t="s" s="9">
+        <v>206</v>
+      </c>
+      <c r="F143" t="s" s="9">
+        <v>207</v>
+      </c>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
     </row>
     <row r="144" ht="20.5" customHeight="1">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
+      <c r="E144" t="s" s="9">
+        <v>208</v>
+      </c>
+      <c r="F144" t="s" s="9">
+        <v>209</v>
+      </c>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
@@ -6604,8 +6878,12 @@
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
+      <c r="E145" t="s" s="9">
+        <v>210</v>
+      </c>
+      <c r="F145" t="s" s="9">
+        <v>211</v>
+      </c>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
@@ -6617,8 +6895,12 @@
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
+      <c r="E146" t="s" s="9">
+        <v>212</v>
+      </c>
+      <c r="F146" t="s" s="9">
+        <v>213</v>
+      </c>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
@@ -6630,8 +6912,12 @@
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
+      <c r="E147" t="s" s="9">
+        <v>214</v>
+      </c>
+      <c r="F147" t="s" s="9">
+        <v>215</v>
+      </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
@@ -6643,8 +6929,12 @@
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
+      <c r="E148" t="s" s="9">
+        <v>216</v>
+      </c>
+      <c r="F148" t="s" s="9">
+        <v>217</v>
+      </c>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
@@ -6656,87 +6946,85 @@
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
+      <c r="E149" t="s" s="9">
+        <v>218</v>
+      </c>
+      <c r="F149" t="s" s="9">
+        <v>219</v>
+      </c>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
-    <row r="150" ht="44.5" customHeight="1">
-      <c r="A150" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="D150" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E150" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-    </row>
-    <row r="151" ht="20.5" customHeight="1">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
+    <row r="150" ht="20.5" customHeight="1">
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+    </row>
+    <row r="151" ht="116.5" customHeight="1">
+      <c r="A151" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="D151" t="s" s="2">
+        <v>9</v>
+      </c>
       <c r="E151" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="F151" t="s" s="10">
+        <v>223</v>
+      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" ht="164.5" customHeight="1">
-      <c r="A152" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="D152" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E152" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="F152" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
+    <row r="152" ht="20.5" customHeight="1">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" t="s" s="11">
+        <v>216</v>
+      </c>
+      <c r="F152" t="s" s="12">
+        <v>224</v>
+      </c>
+      <c r="G152" s="13"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
     </row>
     <row r="153" ht="20.5" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
+      <c r="E153" t="s" s="11">
+        <v>218</v>
+      </c>
+      <c r="F153" t="s" s="12">
+        <v>225</v>
+      </c>
+      <c r="G153" s="13"/>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -6747,461 +7035,435 @@
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
+      <c r="E154" t="s" s="11">
+        <v>226</v>
+      </c>
+      <c r="F154" t="s" s="12">
+        <v>227</v>
+      </c>
+      <c r="G154" s="13"/>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
-    <row r="155" ht="164.5" customHeight="1">
-      <c r="A155" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C155" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="D155" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E155" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
+    <row r="155" ht="20.5" customHeight="1">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" t="s" s="11">
+        <v>228</v>
+      </c>
+      <c r="F155" t="s" s="12">
+        <v>229</v>
+      </c>
+      <c r="G155" s="13"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
     </row>
     <row r="156" ht="20.5" customHeight="1">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
+      <c r="E156" t="s" s="11">
+        <v>230</v>
+      </c>
+      <c r="F156" t="s" s="12">
+        <v>231</v>
+      </c>
+      <c r="G156" s="13"/>
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157" ht="20.5" customHeight="1">
-      <c r="A157" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="D157" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E157" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" t="s" s="11">
+        <v>232</v>
+      </c>
+      <c r="F157" t="s" s="12">
+        <v>233</v>
+      </c>
+      <c r="G157" s="13"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
     </row>
     <row r="158" ht="20.5" customHeight="1">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
-      <c r="E158" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="G158" s="7"/>
+      <c r="E158" t="s" s="11">
+        <v>234</v>
+      </c>
+      <c r="F158" t="s" s="12">
+        <v>235</v>
+      </c>
+      <c r="G158" s="13"/>
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
-      <c r="K158" s="3"/>
+      <c r="K158" s="7"/>
     </row>
     <row r="159" ht="20.5" customHeight="1">
-      <c r="A159" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="D159" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E159" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
-    </row>
-    <row r="160" ht="116.5" customHeight="1">
-      <c r="A160" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="D160" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="E160" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
-    </row>
-    <row r="161" ht="32.5" customHeight="1">
-      <c r="A161" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C161" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="D161" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E161" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-    </row>
-    <row r="162" ht="32.5" customHeight="1">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" t="s" s="11">
+        <v>236</v>
+      </c>
+      <c r="F159" t="s" s="12">
+        <v>237</v>
+      </c>
+      <c r="G159" s="13"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+    </row>
+    <row r="160" ht="20.5" customHeight="1">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" t="s" s="11">
+        <v>238</v>
+      </c>
+      <c r="F160" t="s" s="12">
+        <v>239</v>
+      </c>
+      <c r="G160" s="13"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+    </row>
+    <row r="161" ht="20.5" customHeight="1">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" t="s" s="11">
+        <v>240</v>
+      </c>
+      <c r="F161" t="s" s="12">
+        <v>241</v>
+      </c>
+      <c r="G161" s="13"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+    </row>
+    <row r="162" ht="20.5" customHeight="1">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
-      <c r="E162" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="G162" s="7"/>
+      <c r="E162" t="s" s="11">
+        <v>242</v>
+      </c>
+      <c r="F162" t="s" s="12">
+        <v>243</v>
+      </c>
+      <c r="G162" s="13"/>
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
-      <c r="K162" s="3"/>
+      <c r="K162" s="7"/>
     </row>
     <row r="163" ht="20.5" customHeight="1">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
-      <c r="E163" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="G163" s="7"/>
+      <c r="E163" t="s" s="11">
+        <v>244</v>
+      </c>
+      <c r="F163" t="s" s="12">
+        <v>245</v>
+      </c>
+      <c r="G163" s="13"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
-      <c r="K163" s="3"/>
+      <c r="K163" s="7"/>
     </row>
     <row r="164" ht="20.5" customHeight="1">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
-      <c r="E164" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="F164" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="G164" s="7"/>
+      <c r="E164" t="s" s="11">
+        <v>246</v>
+      </c>
+      <c r="F164" t="s" s="12">
+        <v>247</v>
+      </c>
+      <c r="G164" s="13"/>
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
-      <c r="K164" s="3"/>
+      <c r="K164" s="7"/>
     </row>
     <row r="165" ht="20.5" customHeight="1">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
-      <c r="E165" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="F165" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="G165" s="7"/>
+      <c r="E165" t="s" s="11">
+        <v>248</v>
+      </c>
+      <c r="F165" t="s" s="12">
+        <v>249</v>
+      </c>
+      <c r="G165" s="13"/>
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
-      <c r="K165" s="3"/>
+      <c r="K165" s="7"/>
     </row>
     <row r="166" ht="20.5" customHeight="1">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
-      <c r="E166" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="F166" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="G166" s="7"/>
+      <c r="E166" t="s" s="11">
+        <v>250</v>
+      </c>
+      <c r="F166" t="s" s="12">
+        <v>251</v>
+      </c>
+      <c r="G166" s="13"/>
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
-      <c r="K166" s="3"/>
-    </row>
-    <row r="167" ht="32.5" customHeight="1">
+      <c r="K166" s="7"/>
+    </row>
+    <row r="167" ht="20.5" customHeight="1">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
-      <c r="E167" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="F167" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="G167" s="7"/>
+      <c r="E167" t="s" s="11">
+        <v>252</v>
+      </c>
+      <c r="F167" t="s" s="12">
+        <v>253</v>
+      </c>
+      <c r="G167" s="13"/>
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
-      <c r="K167" s="3"/>
-    </row>
-    <row r="168" ht="32.5" customHeight="1">
+      <c r="K167" s="7"/>
+    </row>
+    <row r="168" ht="20.5" customHeight="1">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
-      <c r="E168" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="F168" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="G168" s="7"/>
+      <c r="E168" t="s" s="11">
+        <v>254</v>
+      </c>
+      <c r="F168" t="s" s="12">
+        <v>255</v>
+      </c>
+      <c r="G168" s="13"/>
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
-      <c r="K168" s="3"/>
+      <c r="K168" s="7"/>
     </row>
     <row r="169" ht="20.5" customHeight="1">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
-      <c r="E169" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="F169" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="G169" s="7"/>
+      <c r="E169" t="s" s="11">
+        <v>256</v>
+      </c>
+      <c r="F169" t="s" s="12">
+        <v>257</v>
+      </c>
+      <c r="G169" s="13"/>
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
-      <c r="K169" s="3"/>
-    </row>
-    <row r="170" ht="32.5" customHeight="1">
+      <c r="K169" s="7"/>
+    </row>
+    <row r="170" ht="20.5" customHeight="1">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
-      <c r="E170" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="F170" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="G170" s="7"/>
+      <c r="E170" t="s" s="11">
+        <v>258</v>
+      </c>
+      <c r="F170" t="s" s="12">
+        <v>259</v>
+      </c>
+      <c r="G170" s="13"/>
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
-      <c r="K170" s="3"/>
+      <c r="K170" s="7"/>
     </row>
     <row r="171" ht="20.5" customHeight="1">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
-      <c r="E171" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="F171" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="G171" s="7"/>
+      <c r="E171" t="s" s="11">
+        <v>260</v>
+      </c>
+      <c r="F171" t="s" s="12">
+        <v>261</v>
+      </c>
+      <c r="G171" s="13"/>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
-      <c r="K171" s="3"/>
+      <c r="K171" s="7"/>
     </row>
     <row r="172" ht="20.5" customHeight="1">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
-      <c r="E172" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="F172" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="G172" s="7"/>
+      <c r="E172" t="s" s="11">
+        <v>262</v>
+      </c>
+      <c r="F172" t="s" s="12">
+        <v>263</v>
+      </c>
+      <c r="G172" s="13"/>
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
-      <c r="K172" s="3"/>
+      <c r="K172" s="7"/>
     </row>
     <row r="173" ht="20.5" customHeight="1">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
-      <c r="E173" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="F173" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="G173" s="7"/>
+      <c r="E173" t="s" s="11">
+        <v>264</v>
+      </c>
+      <c r="F173" t="s" s="12">
+        <v>265</v>
+      </c>
+      <c r="G173" s="13"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
-      <c r="K173" s="3"/>
+      <c r="K173" s="7"/>
     </row>
     <row r="174" ht="20.5" customHeight="1">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
-      <c r="E174" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="F174" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="G174" s="7"/>
+      <c r="E174" t="s" s="11">
+        <v>266</v>
+      </c>
+      <c r="F174" t="s" s="12">
+        <v>267</v>
+      </c>
+      <c r="G174" s="13"/>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-      <c r="K174" s="3"/>
+      <c r="K174" s="7"/>
     </row>
     <row r="175" ht="20.5" customHeight="1">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
-      <c r="E175" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="F175" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="E175" s="7"/>
+      <c r="F175" s="14"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
-      <c r="K175" s="3"/>
-    </row>
-    <row r="176" ht="32.5" customHeight="1">
+      <c r="K175" s="7"/>
+    </row>
+    <row r="176" ht="44.5" customHeight="1">
       <c r="A176" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D176" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
+        <v>271</v>
+      </c>
+      <c r="E176" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="7"/>
+      <c r="K176" s="3"/>
     </row>
     <row r="177" ht="20.5" customHeight="1">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
+      <c r="E177" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
-      <c r="K177" s="7"/>
-    </row>
-    <row r="178" ht="32.5" customHeight="1">
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" ht="164.5" customHeight="1">
       <c r="A178" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D178" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
+        <v>271</v>
+      </c>
+      <c r="E178" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="F178" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="7"/>
+      <c r="K178" s="3"/>
     </row>
     <row r="179" ht="20.5" customHeight="1">
       <c r="A179" s="7"/>
@@ -7216,80 +7478,80 @@
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
     </row>
-    <row r="180" ht="32.5" customHeight="1">
-      <c r="A180" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C180" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="D180" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E180" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="F180" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-    </row>
-    <row r="181" ht="44.5" customHeight="1">
-      <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
+    <row r="180" ht="20.5" customHeight="1">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+    </row>
+    <row r="181" ht="164.5" customHeight="1">
+      <c r="A181" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="E181" t="s" s="2">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
       <c r="K181" s="3"/>
     </row>
-    <row r="182" ht="44.5" customHeight="1">
+    <row r="182" ht="20.5" customHeight="1">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
-      <c r="E182" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="F182" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
-      <c r="K182" s="3"/>
-    </row>
-    <row r="183" ht="44.5" customHeight="1">
-      <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
+      <c r="K182" s="7"/>
+    </row>
+    <row r="183" ht="20.5" customHeight="1">
+      <c r="A183" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="D183" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="E183" t="s" s="2">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
+        <v>283</v>
+      </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
       <c r="K183" s="3"/>
     </row>
     <row r="184" ht="20.5" customHeight="1">
@@ -7298,10 +7560,10 @@
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" t="s" s="2">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
@@ -7310,38 +7572,512 @@
       <c r="K184" s="3"/>
     </row>
     <row r="185" ht="20.5" customHeight="1">
-      <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
+      <c r="A185" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="E185" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
+        <v>288</v>
+      </c>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" ht="20.5" customHeight="1">
-      <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
+    <row r="186" ht="116.5" customHeight="1">
+      <c r="A186" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="D186" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="E186" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="F186" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
+        <v>292</v>
+      </c>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
       <c r="K186" s="3"/>
+    </row>
+    <row r="187" ht="32.5" customHeight="1">
+      <c r="A187" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="D187" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="E187" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="F187" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+    </row>
+    <row r="188" ht="32.5" customHeight="1">
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="F188" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" ht="20.5" customHeight="1">
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="F189" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" ht="20.5" customHeight="1">
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="F190" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="3"/>
+    </row>
+    <row r="191" ht="20.5" customHeight="1">
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="F191" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="3"/>
+    </row>
+    <row r="192" ht="20.5" customHeight="1">
+      <c r="A192" s="7"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="F192" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="3"/>
+    </row>
+    <row r="193" ht="32.5" customHeight="1">
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="F193" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="3"/>
+    </row>
+    <row r="194" ht="32.5" customHeight="1">
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="F194" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="3"/>
+    </row>
+    <row r="195" ht="20.5" customHeight="1">
+      <c r="A195" s="7"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="F195" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="3"/>
+    </row>
+    <row r="196" ht="32.5" customHeight="1">
+      <c r="A196" s="7"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="F196" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="3"/>
+    </row>
+    <row r="197" ht="20.5" customHeight="1">
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="F197" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="3"/>
+    </row>
+    <row r="198" ht="20.5" customHeight="1">
+      <c r="A198" s="7"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="F198" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="3"/>
+    </row>
+    <row r="199" ht="20.5" customHeight="1">
+      <c r="A199" s="7"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="F199" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="3"/>
+    </row>
+    <row r="200" ht="20.5" customHeight="1">
+      <c r="A200" s="7"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="F200" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="3"/>
+    </row>
+    <row r="201" ht="20.5" customHeight="1">
+      <c r="A201" s="7"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="F201" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="7"/>
+      <c r="J201" s="7"/>
+      <c r="K201" s="3"/>
+    </row>
+    <row r="202" ht="32.5" customHeight="1">
+      <c r="A202" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="D202" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="7"/>
+    </row>
+    <row r="203" ht="20.5" customHeight="1">
+      <c r="A203" s="7"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="7"/>
+      <c r="J203" s="7"/>
+      <c r="K203" s="7"/>
+    </row>
+    <row r="204" ht="32.5" customHeight="1">
+      <c r="A204" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D204" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="7"/>
+    </row>
+    <row r="205" ht="20.5" customHeight="1">
+      <c r="A205" s="7"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="7"/>
+      <c r="J205" s="7"/>
+      <c r="K205" s="7"/>
+    </row>
+    <row r="206" ht="32.5" customHeight="1">
+      <c r="A206" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="D206" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="E206" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="F206" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+    </row>
+    <row r="207" ht="44.5" customHeight="1">
+      <c r="A207" s="7"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="F207" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="7"/>
+      <c r="J207" s="7"/>
+      <c r="K207" s="3"/>
+    </row>
+    <row r="208" ht="44.5" customHeight="1">
+      <c r="A208" s="7"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="F208" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="7"/>
+      <c r="J208" s="7"/>
+      <c r="K208" s="3"/>
+    </row>
+    <row r="209" ht="44.5" customHeight="1">
+      <c r="A209" s="7"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="E209" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="F209" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="7"/>
+      <c r="J209" s="7"/>
+      <c r="K209" s="3"/>
+    </row>
+    <row r="210" ht="20.5" customHeight="1">
+      <c r="A210" s="7"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="F210" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="7"/>
+      <c r="J210" s="7"/>
+      <c r="K210" s="3"/>
+    </row>
+    <row r="211" ht="20.5" customHeight="1">
+      <c r="A211" s="7"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="F211" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="7"/>
+      <c r="J211" s="7"/>
+      <c r="K211" s="3"/>
+    </row>
+    <row r="212" ht="20.5" customHeight="1">
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+      <c r="E212" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="F212" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="7"/>
+      <c r="J212" s="7"/>
+      <c r="K212" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/data/Data Dictionary.xlsx
+++ b/data/Data Dictionary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
   <si>
     <r>
       <rPr>
@@ -2278,14 +2278,103 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>2</t>
+  </si>
+  <si>
+    <t>IHR Coordination, Communication and Advocacy and Reporting</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Antimicrobial Resistance</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Zoonotic Disease</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Food Safety</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Immunization</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>National Laboratory System</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Biosafety and Biosecurity</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Emergency Preparedness</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Emergency Response Operations</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Linking Public Health and Security Authorities</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Medical Countermeasures and Personnel Deployment</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Risk Communication</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Points of Entry</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Chemical Events</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Radiation Emergencies</t>
   </si>
   <si>
     <r>
@@ -2402,6 +2491,16 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>No capacity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
     </r>
   </si>
   <si>
@@ -3206,15 +3305,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1210856</xdr:colOff>
+      <xdr:colOff>1191806</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>329488</xdr:rowOff>
+      <xdr:rowOff>310435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>245656</xdr:colOff>
+      <xdr:colOff>226606</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>621588</xdr:rowOff>
+      <xdr:rowOff>602535</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3223,7 +3322,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11167656" y="39885543"/>
+          <a:off x="11148606" y="39866490"/>
           <a:ext cx="1524001" cy="292101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4367,7 +4466,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K212"/>
+  <dimension ref="A1:K229"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -7433,36 +7532,30 @@
       <c r="E177" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="F177" s="7"/>
+      <c r="F177" t="s" s="9">
+        <v>275</v>
+      </c>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="3"/>
     </row>
-    <row r="178" ht="164.5" customHeight="1">
-      <c r="A178" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C178" t="s" s="2">
+    <row r="178" ht="20.5" customHeight="1">
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="D178" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="E178" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="9">
         <v>277</v>
       </c>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
       <c r="K178" s="3"/>
     </row>
     <row r="179" ht="20.5" customHeight="1">
@@ -7470,50 +7563,50 @@
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
+      <c r="E179" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="F179" t="s" s="9">
+        <v>279</v>
+      </c>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
-      <c r="K179" s="7"/>
+      <c r="K179" s="3"/>
     </row>
     <row r="180" ht="20.5" customHeight="1">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
+      <c r="E180" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="F180" t="s" s="9">
+        <v>281</v>
+      </c>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
-      <c r="K180" s="7"/>
-    </row>
-    <row r="181" ht="164.5" customHeight="1">
-      <c r="A181" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C181" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="D181" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" ht="20.5" customHeight="1">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
       <c r="E181" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="F181" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="F181" t="s" s="9">
+        <v>283</v>
+      </c>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
       <c r="K181" s="3"/>
     </row>
     <row r="182" ht="20.5" customHeight="1">
@@ -7521,37 +7614,33 @@
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
+      <c r="E182" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="F182" t="s" s="9">
+        <v>285</v>
+      </c>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
+      <c r="K182" s="3"/>
     </row>
     <row r="183" ht="20.5" customHeight="1">
-      <c r="A183" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C183" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="D183" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
       <c r="E183" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="F183" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="F183" t="s" s="9">
+        <v>287</v>
+      </c>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
       <c r="K183" s="3"/>
     </row>
     <row r="184" ht="20.5" customHeight="1">
@@ -7560,10 +7649,10 @@
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="F184" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
+      </c>
+      <c r="F184" t="s" s="9">
+        <v>205</v>
       </c>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
@@ -7572,90 +7661,66 @@
       <c r="K184" s="3"/>
     </row>
     <row r="185" ht="20.5" customHeight="1">
-      <c r="A185" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B185" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="D185" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
       <c r="E185" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="F185" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="F185" t="s" s="9">
+        <v>290</v>
+      </c>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" ht="116.5" customHeight="1">
-      <c r="A186" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B186" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C186" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="D186" t="s" s="2">
+    <row r="186" ht="20.5" customHeight="1">
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="E186" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="9">
         <v>292</v>
       </c>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
       <c r="K186" s="3"/>
     </row>
-    <row r="187" ht="32.5" customHeight="1">
-      <c r="A187" t="s" s="2">
+    <row r="187" ht="20.5" customHeight="1">
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="F187" t="s" s="9">
         <v>294</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="D187" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="E187" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="F187" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
       <c r="K187" s="3"/>
     </row>
-    <row r="188" ht="32.5" customHeight="1">
+    <row r="188" ht="20.5" customHeight="1">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="F188" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="F188" t="s" s="9">
+        <v>296</v>
       </c>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
@@ -7669,10 +7734,10 @@
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="F189" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="F189" t="s" s="9">
+        <v>298</v>
       </c>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
@@ -7686,10 +7751,10 @@
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="F190" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="F190" t="s" s="9">
+        <v>300</v>
       </c>
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
@@ -7703,10 +7768,10 @@
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="F191" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
+      </c>
+      <c r="F191" t="s" s="9">
+        <v>302</v>
       </c>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
@@ -7720,10 +7785,10 @@
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="F192" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="F192" t="s" s="9">
+        <v>304</v>
       </c>
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
@@ -7731,16 +7796,16 @@
       <c r="J192" s="7"/>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" ht="32.5" customHeight="1">
+    <row r="193" ht="20.5" customHeight="1">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="F193" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
+      </c>
+      <c r="F193" t="s" s="9">
+        <v>306</v>
       </c>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
@@ -7748,89 +7813,93 @@
       <c r="J193" s="7"/>
       <c r="K193" s="3"/>
     </row>
-    <row r="194" ht="32.5" customHeight="1">
+    <row r="194" ht="20.5" customHeight="1">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
-      <c r="E194" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="F194" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="3"/>
     </row>
-    <row r="195" ht="20.5" customHeight="1">
-      <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
+    <row r="195" ht="164.5" customHeight="1">
+      <c r="A195" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="E195" t="s" s="2">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
       <c r="K195" s="3"/>
     </row>
-    <row r="196" ht="32.5" customHeight="1">
+    <row r="196" ht="20.5" customHeight="1">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
-      <c r="E196" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="F196" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
-      <c r="K196" s="3"/>
+      <c r="K196" s="7"/>
     </row>
     <row r="197" ht="20.5" customHeight="1">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
-      <c r="E197" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="F197" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
-      <c r="K197" s="3"/>
-    </row>
-    <row r="198" ht="20.5" customHeight="1">
-      <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
+      <c r="K197" s="7"/>
+    </row>
+    <row r="198" ht="164.5" customHeight="1">
+      <c r="A198" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="D198" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="E198" t="s" s="2">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="F198" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="7"/>
+        <v>312</v>
+      </c>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
       <c r="K198" s="3"/>
     </row>
     <row r="199" ht="20.5" customHeight="1">
@@ -7838,33 +7907,37 @@
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
-      <c r="E199" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="F199" t="s" s="2">
-        <v>27</v>
-      </c>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
-      <c r="K199" s="3"/>
+      <c r="K199" s="7"/>
     </row>
     <row r="200" ht="20.5" customHeight="1">
-      <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
+      <c r="A200" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C200" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="D200" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="E200" t="s" s="2">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="F200" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
+        <v>315</v>
+      </c>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
       <c r="K200" s="3"/>
     </row>
     <row r="201" ht="20.5" customHeight="1">
@@ -7873,10 +7946,10 @@
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F201" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
@@ -7884,109 +7957,125 @@
       <c r="J201" s="7"/>
       <c r="K201" s="3"/>
     </row>
-    <row r="202" ht="32.5" customHeight="1">
+    <row r="202" ht="20.5" customHeight="1">
       <c r="A202" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D202" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
+      <c r="E202" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="F202" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="7"/>
-    </row>
-    <row r="203" ht="20.5" customHeight="1">
-      <c r="A203" s="7"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
-      <c r="H203" s="7"/>
-      <c r="I203" s="7"/>
-      <c r="J203" s="7"/>
-      <c r="K203" s="7"/>
+      <c r="K202" s="3"/>
+    </row>
+    <row r="203" ht="116.5" customHeight="1">
+      <c r="A203" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="D203" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="E203" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="F203" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
     </row>
     <row r="204" ht="32.5" customHeight="1">
       <c r="A204" t="s" s="2">
         <v>326</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
+      <c r="E204" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="F204" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="7"/>
-    </row>
-    <row r="205" ht="20.5" customHeight="1">
+      <c r="K204" s="3"/>
+    </row>
+    <row r="205" ht="32.5" customHeight="1">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
+      <c r="E205" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="F205" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
-      <c r="K205" s="7"/>
-    </row>
-    <row r="206" ht="32.5" customHeight="1">
-      <c r="A206" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B206" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C206" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D206" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="K205" s="3"/>
+    </row>
+    <row r="206" ht="20.5" customHeight="1">
+      <c r="A206" s="7"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
       <c r="E206" t="s" s="2">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
+        <v>333</v>
+      </c>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="7"/>
+      <c r="J206" s="7"/>
       <c r="K206" s="3"/>
     </row>
-    <row r="207" ht="44.5" customHeight="1">
+    <row r="207" ht="20.5" customHeight="1">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" t="s" s="2">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
@@ -7994,16 +8083,16 @@
       <c r="J207" s="7"/>
       <c r="K207" s="3"/>
     </row>
-    <row r="208" ht="44.5" customHeight="1">
+    <row r="208" ht="20.5" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" t="s" s="2">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="F208" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
@@ -8011,16 +8100,16 @@
       <c r="J208" s="7"/>
       <c r="K208" s="3"/>
     </row>
-    <row r="209" ht="44.5" customHeight="1">
+    <row r="209" ht="20.5" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" t="s" s="2">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
@@ -8028,16 +8117,16 @@
       <c r="J209" s="7"/>
       <c r="K209" s="3"/>
     </row>
-    <row r="210" ht="20.5" customHeight="1">
+    <row r="210" ht="32.5" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" t="s" s="2">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G210" s="7"/>
       <c r="H210" s="7"/>
@@ -8045,16 +8134,16 @@
       <c r="J210" s="7"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" ht="20.5" customHeight="1">
+    <row r="211" ht="32.5" customHeight="1">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" t="s" s="2">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="F211" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
@@ -8068,16 +8157,313 @@
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" t="s" s="2">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="F212" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
       <c r="K212" s="3"/>
+    </row>
+    <row r="213" ht="32.5" customHeight="1">
+      <c r="A213" s="7"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="F213" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="7"/>
+      <c r="J213" s="7"/>
+      <c r="K213" s="3"/>
+    </row>
+    <row r="214" ht="20.5" customHeight="1">
+      <c r="A214" s="7"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+      <c r="E214" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="F214" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="7"/>
+      <c r="J214" s="7"/>
+      <c r="K214" s="3"/>
+    </row>
+    <row r="215" ht="20.5" customHeight="1">
+      <c r="A215" s="7"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="F215" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="7"/>
+      <c r="J215" s="7"/>
+      <c r="K215" s="3"/>
+    </row>
+    <row r="216" ht="20.5" customHeight="1">
+      <c r="A216" s="7"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="F216" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="7"/>
+      <c r="J216" s="7"/>
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" ht="20.5" customHeight="1">
+      <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="F217" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="7"/>
+      <c r="J217" s="7"/>
+      <c r="K217" s="3"/>
+    </row>
+    <row r="218" ht="20.5" customHeight="1">
+      <c r="A218" s="7"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="F218" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="3"/>
+    </row>
+    <row r="219" ht="32.5" customHeight="1">
+      <c r="A219" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C219" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="D219" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="7"/>
+    </row>
+    <row r="220" ht="20.5" customHeight="1">
+      <c r="A220" s="7"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="7"/>
+      <c r="J220" s="7"/>
+      <c r="K220" s="7"/>
+    </row>
+    <row r="221" ht="32.5" customHeight="1">
+      <c r="A221" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C221" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="D221" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="7"/>
+    </row>
+    <row r="222" ht="20.5" customHeight="1">
+      <c r="A222" s="7"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="7"/>
+      <c r="J222" s="7"/>
+      <c r="K222" s="7"/>
+    </row>
+    <row r="223" ht="32.5" customHeight="1">
+      <c r="A223" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C223" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="D223" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="E223" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="F223" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+    </row>
+    <row r="224" ht="44.5" customHeight="1">
+      <c r="A224" s="7"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+      <c r="E224" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="F224" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="7"/>
+      <c r="J224" s="7"/>
+      <c r="K224" s="3"/>
+    </row>
+    <row r="225" ht="44.5" customHeight="1">
+      <c r="A225" s="7"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+      <c r="E225" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="F225" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="7"/>
+      <c r="J225" s="7"/>
+      <c r="K225" s="3"/>
+    </row>
+    <row r="226" ht="44.5" customHeight="1">
+      <c r="A226" s="7"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+      <c r="E226" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="F226" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="7"/>
+      <c r="J226" s="7"/>
+      <c r="K226" s="3"/>
+    </row>
+    <row r="227" ht="20.5" customHeight="1">
+      <c r="A227" s="7"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+      <c r="E227" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="F227" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="7"/>
+      <c r="J227" s="7"/>
+      <c r="K227" s="3"/>
+    </row>
+    <row r="228" ht="20.5" customHeight="1">
+      <c r="A228" s="7"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="F228" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="3"/>
+    </row>
+    <row r="229" ht="20.5" customHeight="1">
+      <c r="A229" s="7"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="F229" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="7"/>
+      <c r="J229" s="7"/>
+      <c r="K229" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
